--- a/migration/bookings.out.xlsx
+++ b/migration/bookings.out.xlsx
@@ -2360,7 +2360,7 @@
         <v>44228</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>44377</v>
+        <v>44327</v>
       </c>
       <c r="F29" s="3" t="n">
         <v>44228</v>
@@ -3110,7 +3110,7 @@
         <v>44228</v>
       </c>
       <c r="E40" s="3" t="n">
-        <v>45077</v>
+        <v>44712</v>
       </c>
       <c r="F40" s="3" t="n">
         <v>44228</v>
@@ -3518,13 +3518,13 @@
         <v>44237</v>
       </c>
       <c r="E46" s="3" t="n">
-        <v>44367</v>
+        <v>44347</v>
       </c>
       <c r="F46" s="3" t="n">
         <v>44237</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>44367</v>
+        <v>44347</v>
       </c>
       <c r="H46" t="n">
         <v>93</v>
@@ -4622,13 +4622,13 @@
         <v>44239</v>
       </c>
       <c r="E62" s="3" t="n">
-        <v>44537</v>
+        <v>44469</v>
       </c>
       <c r="F62" s="3" t="n">
         <v>44240</v>
       </c>
       <c r="G62" s="3" t="n">
-        <v>44537</v>
+        <v>44469</v>
       </c>
       <c r="H62" t="n">
         <v>60</v>
@@ -5651,7 +5651,7 @@
         <v>44337</v>
       </c>
       <c r="E77" s="3" t="n">
-        <v>44367</v>
+        <v>44347</v>
       </c>
       <c r="F77" s="3" t="n">
         <v>44337</v>
@@ -5918,13 +5918,13 @@
         <v>1</v>
       </c>
       <c r="D81" s="3" t="n">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="E81" s="3" t="n">
         <v>44620</v>
       </c>
       <c r="F81" s="3" t="n">
-        <v>44423</v>
+        <v>44424</v>
       </c>
       <c r="G81" s="3" t="n">
         <v>44561</v>
@@ -6191,7 +6191,7 @@
         <v>44337</v>
       </c>
       <c r="E85" s="3" t="n">
-        <v>44407</v>
+        <v>44380</v>
       </c>
       <c r="F85" s="3" t="n">
         <v>44337</v>
@@ -7745,13 +7745,13 @@
         <v>44453</v>
       </c>
       <c r="E108" s="3" t="n">
-        <v>44594</v>
+        <v>44592</v>
       </c>
       <c r="F108" s="3" t="n">
         <v>44453</v>
       </c>
       <c r="G108" s="3" t="n">
-        <v>44594</v>
+        <v>44592</v>
       </c>
       <c r="I108" s="3" t="n">
         <v>44369</v>
@@ -7877,7 +7877,7 @@
         <v>44424</v>
       </c>
       <c r="E110" s="3" t="n">
-        <v>44773</v>
+        <v>44561</v>
       </c>
       <c r="F110" s="3" t="n">
         <v>1</v>
@@ -9265,13 +9265,13 @@
         <v>44409</v>
       </c>
       <c r="E130" s="3" t="n">
-        <v>44773</v>
+        <v>44500</v>
       </c>
       <c r="F130" s="3" t="n">
         <v>44409</v>
       </c>
       <c r="G130" s="3" t="n">
-        <v>44773</v>
+        <v>44500</v>
       </c>
       <c r="H130" t="n">
         <v>113</v>
@@ -9403,13 +9403,13 @@
         <v>44440</v>
       </c>
       <c r="E132" s="3" t="n">
-        <v>44742</v>
+        <v>44500</v>
       </c>
       <c r="F132" s="3" t="n">
         <v>44446</v>
       </c>
       <c r="G132" s="3" t="n">
-        <v>44742</v>
+        <v>44500</v>
       </c>
       <c r="H132" t="n">
         <v>88</v>
@@ -11110,16 +11110,16 @@
         <v>1</v>
       </c>
       <c r="D157" s="3" t="n">
-        <v>44450</v>
+        <v>44501</v>
       </c>
       <c r="E157" s="3" t="n">
-        <v>44742</v>
+        <v>44712</v>
       </c>
       <c r="F157" s="3" t="n">
-        <v>44450</v>
+        <v>44501</v>
       </c>
       <c r="G157" s="3" t="n">
-        <v>44742</v>
+        <v>44712</v>
       </c>
       <c r="H157" t="n">
         <v>88</v>
@@ -11680,7 +11680,7 @@
         <v>44436</v>
       </c>
       <c r="E165" s="3" t="n">
-        <v>44567</v>
+        <v>44566</v>
       </c>
       <c r="F165" s="3" t="n">
         <v>1</v>
@@ -11815,7 +11815,7 @@
         <v>44435</v>
       </c>
       <c r="E167" s="3" t="n">
-        <v>44742</v>
+        <v>44712</v>
       </c>
       <c r="F167" s="3" t="n">
         <v>1</v>
@@ -12306,13 +12306,13 @@
         <v>44437</v>
       </c>
       <c r="E174" s="3" t="n">
-        <v>45077</v>
+        <v>44561</v>
       </c>
       <c r="F174" s="3" t="n">
         <v>44437</v>
       </c>
       <c r="G174" s="3" t="n">
-        <v>44773</v>
+        <v>44561</v>
       </c>
       <c r="H174" t="n">
         <v>86</v>
@@ -12510,7 +12510,7 @@
         <v>44438</v>
       </c>
       <c r="E177" s="3" t="n">
-        <v>44717</v>
+        <v>44530</v>
       </c>
       <c r="F177" s="3" t="n">
         <v>1</v>
@@ -13059,16 +13059,16 @@
         <v>1</v>
       </c>
       <c r="D185" s="3" t="n">
-        <v>44470</v>
+        <v>44743</v>
       </c>
       <c r="E185" s="3" t="n">
-        <v>44957</v>
+        <v>44804</v>
       </c>
       <c r="F185" s="3" t="n">
-        <v>44470</v>
+        <v>44743</v>
       </c>
       <c r="G185" s="3" t="n">
-        <v>44738</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>86</v>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -13263,13 +13263,13 @@
         <v>44470</v>
       </c>
       <c r="E188" s="3" t="n">
-        <v>45107</v>
+        <v>44804</v>
       </c>
       <c r="F188" s="3" t="n">
         <v>44803</v>
       </c>
       <c r="G188" s="3" t="n">
-        <v>45107</v>
+        <v>44804</v>
       </c>
       <c r="H188" t="n">
         <v>113</v>
@@ -14078,7 +14078,7 @@
         <v>44440</v>
       </c>
       <c r="E200" s="3" t="n">
-        <v>44688</v>
+        <v>44681</v>
       </c>
       <c r="F200" s="3" t="n">
         <v>1</v>
@@ -14413,7 +14413,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -14423,7 +14423,7 @@
         <v>44438</v>
       </c>
       <c r="E205" s="3" t="n">
-        <v>45169</v>
+        <v>44796</v>
       </c>
       <c r="F205" s="3" t="n">
         <v>1</v>
@@ -14903,13 +14903,13 @@
         <v>1</v>
       </c>
       <c r="D212" s="3" t="n">
-        <v>44459</v>
+        <v>44470</v>
       </c>
       <c r="E212" s="3" t="n">
         <v>44712</v>
       </c>
       <c r="F212" s="3" t="n">
-        <v>44459</v>
+        <v>44470</v>
       </c>
       <c r="G212" s="3" t="n">
         <v>44652</v>
@@ -15176,7 +15176,7 @@
         <v>44464</v>
       </c>
       <c r="E216" s="3" t="n">
-        <v>44773</v>
+        <v>44561</v>
       </c>
       <c r="F216" s="3" t="n">
         <v>1</v>
@@ -15788,7 +15788,7 @@
         <v>44440</v>
       </c>
       <c r="E225" s="3" t="n">
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="F225" s="3" t="n">
         <v>44445</v>
@@ -15923,7 +15923,7 @@
         <v>44443</v>
       </c>
       <c r="E227" s="3" t="n">
-        <v>44712</v>
+        <v>44544</v>
       </c>
       <c r="F227" s="3" t="n">
         <v>1</v>
@@ -16199,13 +16199,13 @@
         <v>44440</v>
       </c>
       <c r="E231" s="3" t="n">
-        <v>44713</v>
+        <v>44681</v>
       </c>
       <c r="F231" s="3" t="n">
         <v>44440</v>
       </c>
       <c r="G231" s="3" t="n">
-        <v>44712</v>
+        <v>44681</v>
       </c>
       <c r="H231" t="n">
         <v>113</v>
@@ -16403,10 +16403,10 @@
         <v>1</v>
       </c>
       <c r="D234" s="3" t="n">
-        <v>44439</v>
+        <v>44470</v>
       </c>
       <c r="E234" s="3" t="n">
-        <v>44530</v>
+        <v>44500</v>
       </c>
       <c r="F234" s="3" t="n">
         <v>1</v>
@@ -16469,13 +16469,13 @@
         <v>44443</v>
       </c>
       <c r="E235" s="3" t="n">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="F235" s="3" t="n">
         <v>44443</v>
       </c>
       <c r="G235" s="3" t="n">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="H235" t="n">
         <v>84</v>
@@ -16604,13 +16604,13 @@
         <v>1</v>
       </c>
       <c r="D237" s="3" t="n">
-        <v>44459</v>
+        <v>44470</v>
       </c>
       <c r="E237" s="3" t="n">
         <v>44749</v>
       </c>
       <c r="F237" s="3" t="n">
-        <v>44459</v>
+        <v>44470</v>
       </c>
       <c r="G237" s="3" t="n">
         <v>44732</v>
@@ -16745,7 +16745,7 @@
         <v>44484</v>
       </c>
       <c r="E239" s="3" t="n">
-        <v>45443</v>
+        <v>44773</v>
       </c>
       <c r="F239" s="3" t="n">
         <v>44484</v>
@@ -17432,13 +17432,13 @@
         <v>1</v>
       </c>
       <c r="D249" s="3" t="n">
-        <v>44470</v>
+        <v>44485</v>
       </c>
       <c r="E249" s="3" t="n">
         <v>44751</v>
       </c>
       <c r="F249" s="3" t="n">
-        <v>44470</v>
+        <v>44485</v>
       </c>
       <c r="G249" s="3" t="n">
         <v>44742</v>
@@ -17711,7 +17711,7 @@
         <v>44486</v>
       </c>
       <c r="E253" s="3" t="n">
-        <v>44592</v>
+        <v>44552</v>
       </c>
       <c r="F253" s="3" t="n">
         <v>1</v>
@@ -18542,13 +18542,13 @@
         <v>44460</v>
       </c>
       <c r="E265" s="3" t="n">
-        <v>44589</v>
+        <v>44561</v>
       </c>
       <c r="F265" s="3" t="n">
         <v>44460</v>
       </c>
       <c r="G265" s="3" t="n">
-        <v>44589</v>
+        <v>44561</v>
       </c>
       <c r="H265" t="n">
         <v>66</v>
@@ -18608,7 +18608,7 @@
         <v>1</v>
       </c>
       <c r="D266" s="3" t="n">
-        <v>44463</v>
+        <v>44470</v>
       </c>
       <c r="E266" s="3" t="n">
         <v>44742</v>
@@ -18680,13 +18680,13 @@
         <v>44466</v>
       </c>
       <c r="E267" s="3" t="n">
-        <v>44712</v>
+        <v>44540</v>
       </c>
       <c r="F267" s="3" t="n">
         <v>44466</v>
       </c>
       <c r="G267" s="3" t="n">
-        <v>44591</v>
+        <v>44540</v>
       </c>
       <c r="H267" t="n">
         <v>43</v>
@@ -18746,13 +18746,13 @@
         <v>1</v>
       </c>
       <c r="D268" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="E268" s="3" t="n">
         <v>44561</v>
       </c>
       <c r="F268" s="3" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="G268" s="3" t="n">
         <v>44561</v>
@@ -18815,7 +18815,7 @@
         <v>1</v>
       </c>
       <c r="D269" s="3" t="n">
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="E269" s="3" t="n">
         <v>44651</v>
@@ -19307,7 +19307,7 @@
         <v>44463</v>
       </c>
       <c r="E276" s="3" t="n">
-        <v>44773</v>
+        <v>44742</v>
       </c>
       <c r="F276" s="3" t="n">
         <v>44463</v>
@@ -19376,7 +19376,7 @@
         <v>44463</v>
       </c>
       <c r="E277" s="3" t="n">
-        <v>45107</v>
+        <v>44742</v>
       </c>
       <c r="F277" s="3" t="n">
         <v>44463</v>
@@ -19511,7 +19511,7 @@
         <v>1</v>
       </c>
       <c r="D279" s="3" t="n">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="E279" s="3" t="n">
         <v>44509</v>
@@ -19723,13 +19723,13 @@
         <v>44459</v>
       </c>
       <c r="E282" s="3" t="n">
-        <v>44712</v>
+        <v>44469</v>
       </c>
       <c r="F282" s="3" t="n">
         <v>44459</v>
       </c>
       <c r="G282" s="3" t="n">
-        <v>44652</v>
+        <v>44469</v>
       </c>
       <c r="H282" t="n">
         <v>43</v>
@@ -19930,13 +19930,13 @@
         <v>44470</v>
       </c>
       <c r="E285" s="3" t="n">
-        <v>44681</v>
+        <v>44561</v>
       </c>
       <c r="F285" s="3" t="n">
         <v>44470</v>
       </c>
       <c r="G285" s="3" t="n">
-        <v>44681</v>
+        <v>44561</v>
       </c>
       <c r="H285" t="n">
         <v>113</v>
@@ -20206,13 +20206,13 @@
         <v>44470</v>
       </c>
       <c r="E289" s="3" t="n">
-        <v>44651</v>
+        <v>44629</v>
       </c>
       <c r="F289" s="3" t="n">
         <v>44470</v>
       </c>
       <c r="G289" s="3" t="n">
-        <v>44651</v>
+        <v>44629</v>
       </c>
       <c r="H289" t="n">
         <v>89</v>
@@ -20421,13 +20421,13 @@
         <v>44470</v>
       </c>
       <c r="E292" s="3" t="n">
-        <v>44561</v>
+        <v>44500</v>
       </c>
       <c r="F292" s="3" t="n">
         <v>44470</v>
       </c>
       <c r="G292" s="3" t="n">
-        <v>44561</v>
+        <v>44500</v>
       </c>
       <c r="H292" t="n">
         <v>114</v>
@@ -20559,13 +20559,13 @@
         <v>44478</v>
       </c>
       <c r="E294" s="3" t="n">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="F294" s="3" t="n">
         <v>44478</v>
       </c>
       <c r="G294" s="3" t="n">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="H294" t="n">
         <v>113</v>
@@ -20766,13 +20766,13 @@
         <v>44484</v>
       </c>
       <c r="E297" s="3" t="n">
-        <v>44595</v>
+        <v>44500</v>
       </c>
       <c r="F297" s="3" t="n">
         <v>44484</v>
       </c>
       <c r="G297" s="3" t="n">
-        <v>44595</v>
+        <v>44500</v>
       </c>
       <c r="H297" t="n">
         <v>23</v>
@@ -20973,13 +20973,13 @@
         <v>44480</v>
       </c>
       <c r="E300" s="3" t="n">
-        <v>44592</v>
+        <v>44489</v>
       </c>
       <c r="F300" s="3" t="n">
         <v>44480</v>
       </c>
       <c r="G300" s="3" t="n">
-        <v>44592</v>
+        <v>44489</v>
       </c>
       <c r="H300" t="n">
         <v>93</v>
@@ -21180,7 +21180,7 @@
         <v>44492</v>
       </c>
       <c r="E303" s="3" t="n">
-        <v>44804</v>
+        <v>44500</v>
       </c>
       <c r="F303" s="3" t="n">
         <v>1</v>
@@ -21249,7 +21249,7 @@
         <v>44439</v>
       </c>
       <c r="E304" s="3" t="n">
-        <v>44530</v>
+        <v>44469</v>
       </c>
       <c r="F304" s="3" t="n">
         <v>1</v>
@@ -21312,13 +21312,13 @@
         <v>44501</v>
       </c>
       <c r="E305" s="3" t="n">
-        <v>44773</v>
+        <v>44712</v>
       </c>
       <c r="F305" s="3" t="n">
         <v>44501</v>
       </c>
       <c r="G305" s="3" t="n">
-        <v>44773</v>
+        <v>44712</v>
       </c>
       <c r="H305" t="n">
         <v>56</v>
@@ -21378,13 +21378,13 @@
         <v>1</v>
       </c>
       <c r="D306" s="3" t="n">
-        <v>44484</v>
+        <v>44610</v>
       </c>
       <c r="E306" s="3" t="n">
         <v>44688</v>
       </c>
       <c r="F306" s="3" t="n">
-        <v>44484</v>
+        <v>44610</v>
       </c>
       <c r="G306" s="3" t="n">
         <v>44688</v>
@@ -21447,16 +21447,16 @@
         <v>1</v>
       </c>
       <c r="D307" s="3" t="n">
-        <v>44571</v>
+        <v>44621</v>
       </c>
       <c r="E307" s="3" t="n">
         <v>44804</v>
       </c>
       <c r="F307" s="3" t="n">
-        <v>44571</v>
+        <v>44621</v>
       </c>
       <c r="G307" s="3" t="n">
-        <v>44620</v>
+        <v>1</v>
       </c>
       <c r="H307" t="n">
         <v>43</v>
@@ -21516,13 +21516,13 @@
         <v>1</v>
       </c>
       <c r="D308" s="3" t="n">
-        <v>44440</v>
+        <v>44501</v>
       </c>
       <c r="E308" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="F308" s="3" t="n">
-        <v>44446</v>
+        <v>44501</v>
       </c>
       <c r="G308" s="3" t="n">
         <v>44742</v>
@@ -21588,7 +21588,7 @@
         <v>44487</v>
       </c>
       <c r="E309" s="3" t="n">
-        <v>44773</v>
+        <v>44712</v>
       </c>
       <c r="F309" s="3" t="n">
         <v>44487</v>
@@ -21654,13 +21654,13 @@
         <v>1</v>
       </c>
       <c r="D310" s="3" t="n">
-        <v>44484</v>
+        <v>44501</v>
       </c>
       <c r="E310" s="3" t="n">
         <v>45070</v>
       </c>
       <c r="F310" s="3" t="n">
-        <v>44484</v>
+        <v>44501</v>
       </c>
       <c r="G310" s="3" t="n">
         <v>44773</v>
@@ -21792,13 +21792,13 @@
         <v>1</v>
       </c>
       <c r="D312" s="3" t="n">
-        <v>44484</v>
+        <v>44501</v>
       </c>
       <c r="E312" s="3" t="n">
         <v>45169</v>
       </c>
       <c r="F312" s="3" t="n">
-        <v>44484</v>
+        <v>44501</v>
       </c>
       <c r="G312" s="3" t="n">
         <v>44773</v>
@@ -21933,7 +21933,7 @@
         <v>44500</v>
       </c>
       <c r="E314" s="3" t="n">
-        <v>44742</v>
+        <v>44712</v>
       </c>
       <c r="F314" s="3" t="n">
         <v>44500</v>
@@ -22002,7 +22002,7 @@
         <v>44501</v>
       </c>
       <c r="E315" s="3" t="n">
-        <v>44742</v>
+        <v>44712</v>
       </c>
       <c r="F315" s="3" t="n">
         <v>44501</v>
@@ -22140,13 +22140,13 @@
         <v>44489</v>
       </c>
       <c r="E317" s="3" t="n">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="F317" s="3" t="n">
         <v>44489</v>
       </c>
       <c r="G317" s="3" t="n">
-        <v>44581</v>
+        <v>44561</v>
       </c>
       <c r="H317" t="n">
         <v>113</v>
@@ -22278,7 +22278,7 @@
         <v>44491</v>
       </c>
       <c r="E319" s="3" t="n">
-        <v>44763</v>
+        <v>44712</v>
       </c>
       <c r="F319" s="3" t="n">
         <v>44491</v>
@@ -22416,13 +22416,13 @@
         <v>44493</v>
       </c>
       <c r="E321" s="3" t="n">
-        <v>44741</v>
+        <v>44712</v>
       </c>
       <c r="F321" s="3" t="n">
         <v>44493</v>
       </c>
       <c r="G321" s="3" t="n">
-        <v>44737</v>
+        <v>44712</v>
       </c>
       <c r="H321" t="n">
         <v>118</v>
@@ -22487,7 +22487,7 @@
         <v>1</v>
       </c>
       <c r="D322" s="3" t="n">
-        <v>44439</v>
+        <v>44501</v>
       </c>
       <c r="E322" s="3" t="n">
         <v>44530</v>
@@ -22622,13 +22622,13 @@
         <v>44501</v>
       </c>
       <c r="E324" s="3" t="n">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="F324" s="3" t="n">
         <v>44501</v>
       </c>
       <c r="G324" s="3" t="n">
-        <v>44651</v>
+        <v>44561</v>
       </c>
       <c r="H324" t="n">
         <v>113</v>
@@ -22826,13 +22826,13 @@
         <v>1</v>
       </c>
       <c r="D327" s="3" t="n">
-        <v>44484</v>
+        <v>44501</v>
       </c>
       <c r="E327" s="3" t="n">
         <v>44595</v>
       </c>
       <c r="F327" s="3" t="n">
-        <v>44484</v>
+        <v>44501</v>
       </c>
       <c r="G327" s="3" t="n">
         <v>44595</v>
@@ -22895,7 +22895,7 @@
         <v>1</v>
       </c>
       <c r="D328" s="3" t="n">
-        <v>44492</v>
+        <v>44501</v>
       </c>
       <c r="E328" s="3" t="n">
         <v>44804</v>
@@ -23033,7 +23033,7 @@
         <v>1</v>
       </c>
       <c r="D330" s="3" t="n">
-        <v>44562</v>
+        <v>44566</v>
       </c>
       <c r="E330" s="3" t="n">
         <v>44742</v>
@@ -23105,7 +23105,7 @@
         <v>44569</v>
       </c>
       <c r="E331" s="3" t="n">
-        <v>44713</v>
+        <v>44712</v>
       </c>
       <c r="F331" s="3" t="n">
         <v>1</v>
@@ -23171,13 +23171,13 @@
         <v>1</v>
       </c>
       <c r="D332" s="3" t="n">
-        <v>44470</v>
+        <v>44531</v>
       </c>
       <c r="E332" s="3" t="n">
-        <v>44957</v>
+        <v>44742</v>
       </c>
       <c r="F332" s="3" t="n">
-        <v>44470</v>
+        <v>44531</v>
       </c>
       <c r="G332" s="3" t="n">
         <v>44738</v>
@@ -23240,10 +23240,10 @@
         <v>1</v>
       </c>
       <c r="D333" s="3" t="n">
-        <v>44594</v>
+        <v>44595</v>
       </c>
       <c r="E333" s="3" t="n">
-        <v>44742</v>
+        <v>44712</v>
       </c>
       <c r="F333" s="3" t="n">
         <v>1</v>
@@ -23440,7 +23440,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -23450,7 +23450,7 @@
         <v>44652</v>
       </c>
       <c r="E336" s="3" t="n">
-        <v>45122</v>
+        <v>44834</v>
       </c>
       <c r="F336" s="3" t="n">
         <v>1</v>
@@ -23519,7 +23519,7 @@
         <v>44593</v>
       </c>
       <c r="E337" s="3" t="n">
-        <v>44741</v>
+        <v>44712</v>
       </c>
       <c r="F337" s="3" t="n">
         <v>44593</v>
@@ -23651,7 +23651,7 @@
         <v>1</v>
       </c>
       <c r="D339" s="3" t="n">
-        <v>44617</v>
+        <v>44727</v>
       </c>
       <c r="E339" s="3" t="n">
         <v>45077</v>
@@ -23720,7 +23720,7 @@
         <v>1</v>
       </c>
       <c r="D340" s="3" t="n">
-        <v>44605</v>
+        <v>44607</v>
       </c>
       <c r="E340" s="3" t="n">
         <v>44745</v>
@@ -23789,7 +23789,7 @@
         <v>1</v>
       </c>
       <c r="D341" s="3" t="n">
-        <v>44608</v>
+        <v>44609</v>
       </c>
       <c r="E341" s="3" t="n">
         <v>44710</v>
@@ -23861,7 +23861,7 @@
         <v>44569</v>
       </c>
       <c r="E342" s="3" t="n">
-        <v>44742</v>
+        <v>44623</v>
       </c>
       <c r="F342" s="3" t="n">
         <v>1</v>
@@ -23996,16 +23996,16 @@
         <v>1</v>
       </c>
       <c r="D344" s="3" t="n">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="E344" s="3" t="n">
-        <v>44799</v>
+        <v>44742</v>
       </c>
       <c r="F344" s="3" t="n">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="G344" s="3" t="n">
-        <v>44799</v>
+        <v>44742</v>
       </c>
       <c r="H344" t="n">
         <v>92</v>
@@ -24068,7 +24068,7 @@
         <v>44593</v>
       </c>
       <c r="E345" s="3" t="n">
-        <v>44773</v>
+        <v>44745</v>
       </c>
       <c r="F345" s="3" t="n">
         <v>1</v>
@@ -24134,13 +24134,13 @@
         <v>1</v>
       </c>
       <c r="D346" s="3" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="E346" s="3" t="n">
         <v>44681</v>
       </c>
       <c r="F346" s="3" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="G346" s="3" t="n">
         <v>44681</v>
@@ -24203,13 +24203,13 @@
         <v>1</v>
       </c>
       <c r="D347" s="3" t="n">
-        <v>44489</v>
+        <v>44562</v>
       </c>
       <c r="E347" s="3" t="n">
         <v>44651</v>
       </c>
       <c r="F347" s="3" t="n">
-        <v>44489</v>
+        <v>44562</v>
       </c>
       <c r="G347" s="3" t="n">
         <v>44581</v>
@@ -24272,13 +24272,13 @@
         <v>1</v>
       </c>
       <c r="D348" s="3" t="n">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="E348" s="3" t="n">
         <v>44651</v>
       </c>
       <c r="F348" s="3" t="n">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="G348" s="3" t="n">
         <v>44651</v>
@@ -24341,13 +24341,13 @@
         <v>1</v>
       </c>
       <c r="D349" s="3" t="n">
-        <v>44478</v>
+        <v>44562</v>
       </c>
       <c r="E349" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="F349" s="3" t="n">
-        <v>44478</v>
+        <v>44562</v>
       </c>
       <c r="G349" s="3" t="n">
         <v>44742</v>
@@ -24410,7 +24410,7 @@
         <v>1</v>
       </c>
       <c r="D350" s="3" t="n">
-        <v>44464</v>
+        <v>44562</v>
       </c>
       <c r="E350" s="3" t="n">
         <v>44773</v>
@@ -24686,7 +24686,7 @@
         <v>1</v>
       </c>
       <c r="D354" s="3" t="n">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="E354" s="3" t="n">
         <v>44581</v>
@@ -24824,13 +24824,13 @@
         <v>1</v>
       </c>
       <c r="D356" s="3" t="n">
-        <v>44437</v>
+        <v>44562</v>
       </c>
       <c r="E356" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="F356" s="3" t="n">
-        <v>44437</v>
+        <v>44562</v>
       </c>
       <c r="G356" s="3" t="n">
         <v>44773</v>
@@ -25583,7 +25583,7 @@
         <v>44607</v>
       </c>
       <c r="E367" s="3" t="n">
-        <v>44773</v>
+        <v>44745</v>
       </c>
       <c r="F367" s="3" t="n">
         <v>1</v>
@@ -25718,16 +25718,16 @@
         <v>1</v>
       </c>
       <c r="D369" s="3" t="n">
-        <v>44228</v>
+        <v>44562</v>
       </c>
       <c r="E369" s="3" t="n">
         <v>44655</v>
       </c>
       <c r="F369" s="3" t="n">
-        <v>44228</v>
+        <v>44562</v>
       </c>
       <c r="G369" s="3" t="n">
-        <v>44559</v>
+        <v>1</v>
       </c>
       <c r="H369" t="n">
         <v>43</v>
@@ -26137,7 +26137,7 @@
         <v>1</v>
       </c>
       <c r="D375" s="3" t="n">
-        <v>44652</v>
+        <v>44774</v>
       </c>
       <c r="E375" s="3" t="n">
         <v>44804</v>
@@ -26421,13 +26421,13 @@
         <v>44585</v>
       </c>
       <c r="E379" s="3" t="n">
-        <v>44895</v>
+        <v>44791</v>
       </c>
       <c r="F379" s="3" t="n">
         <v>44585</v>
       </c>
       <c r="G379" s="3" t="n">
-        <v>44804</v>
+        <v>44791</v>
       </c>
       <c r="H379" t="n">
         <v>83</v>
@@ -26687,7 +26687,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -26697,7 +26697,7 @@
         <v>44592</v>
       </c>
       <c r="E383" s="3" t="n">
-        <v>45107</v>
+        <v>44635</v>
       </c>
       <c r="F383" s="3" t="n">
         <v>1</v>
@@ -27108,7 +27108,7 @@
         <v>1</v>
       </c>
       <c r="D389" s="3" t="n">
-        <v>44621</v>
+        <v>44622</v>
       </c>
       <c r="E389" s="3" t="n">
         <v>44651</v>
@@ -27180,7 +27180,7 @@
         <v>44593</v>
       </c>
       <c r="E390" s="3" t="n">
-        <v>44712</v>
+        <v>44651</v>
       </c>
       <c r="F390" s="3" t="n">
         <v>1</v>
@@ -27315,7 +27315,7 @@
         <v>1</v>
       </c>
       <c r="D392" s="3" t="n">
-        <v>44659</v>
+        <v>44660</v>
       </c>
       <c r="E392" s="3" t="n">
         <v>44724</v>
@@ -27519,7 +27519,7 @@
         <v>44590</v>
       </c>
       <c r="E395" s="3" t="n">
-        <v>44742</v>
+        <v>44634</v>
       </c>
       <c r="F395" s="3" t="n">
         <v>1</v>
@@ -27588,7 +27588,7 @@
         <v>44594</v>
       </c>
       <c r="E396" s="3" t="n">
-        <v>44749</v>
+        <v>44634</v>
       </c>
       <c r="F396" s="3" t="n">
         <v>1</v>
@@ -27864,7 +27864,7 @@
         <v>44598</v>
       </c>
       <c r="E400" s="3" t="n">
-        <v>44742</v>
+        <v>44634</v>
       </c>
       <c r="F400" s="3" t="n">
         <v>1</v>
@@ -28071,7 +28071,7 @@
         <v>44599</v>
       </c>
       <c r="E403" s="3" t="n">
-        <v>44895</v>
+        <v>44712</v>
       </c>
       <c r="F403" s="3" t="n">
         <v>1</v>
@@ -28140,7 +28140,7 @@
         <v>44599</v>
       </c>
       <c r="E404" s="3" t="n">
-        <v>44712</v>
+        <v>44651</v>
       </c>
       <c r="F404" s="3" t="n">
         <v>1</v>
@@ -28416,7 +28416,7 @@
         <v>44617</v>
       </c>
       <c r="E408" s="3" t="n">
-        <v>45077</v>
+        <v>44726</v>
       </c>
       <c r="F408" s="3" t="n">
         <v>1</v>
@@ -28485,7 +28485,7 @@
         <v>44607</v>
       </c>
       <c r="E409" s="3" t="n">
-        <v>44865</v>
+        <v>44773</v>
       </c>
       <c r="F409" s="3" t="n">
         <v>1</v>
@@ -28554,7 +28554,7 @@
         <v>44607</v>
       </c>
       <c r="E410" s="3" t="n">
-        <v>44742</v>
+        <v>44634</v>
       </c>
       <c r="F410" s="3" t="n">
         <v>1</v>
@@ -29106,7 +29106,7 @@
         <v>44620</v>
       </c>
       <c r="E418" s="3" t="n">
-        <v>44681</v>
+        <v>44652</v>
       </c>
       <c r="F418" s="3" t="n">
         <v>1</v>
@@ -29241,7 +29241,7 @@
         <v>1</v>
       </c>
       <c r="D420" s="3" t="n">
-        <v>44831</v>
+        <v>44832</v>
       </c>
       <c r="E420" s="3" t="n">
         <v>45138</v>
@@ -29313,13 +29313,13 @@
         <v>44620</v>
       </c>
       <c r="E421" s="3" t="n">
-        <v>44773</v>
+        <v>44681</v>
       </c>
       <c r="F421" s="3" t="n">
         <v>44620</v>
       </c>
       <c r="G421" s="3" t="n">
-        <v>44757</v>
+        <v>44681</v>
       </c>
       <c r="H421" t="n">
         <v>131</v>
@@ -29382,7 +29382,7 @@
         <v>44652</v>
       </c>
       <c r="E422" s="3" t="n">
-        <v>44806</v>
+        <v>44665</v>
       </c>
       <c r="F422" s="3" t="n">
         <v>1</v>
@@ -29579,7 +29579,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -29589,7 +29589,7 @@
         <v>44655</v>
       </c>
       <c r="E425" s="3" t="n">
-        <v>45443</v>
+        <v>44944</v>
       </c>
       <c r="F425" s="3" t="n">
         <v>1</v>
@@ -29655,10 +29655,10 @@
         <v>1</v>
       </c>
       <c r="D426" s="3" t="n">
-        <v>44593</v>
+        <v>44594</v>
       </c>
       <c r="E426" s="3" t="n">
-        <v>44749</v>
+        <v>44634</v>
       </c>
       <c r="F426" s="3" t="n">
         <v>1</v>
@@ -29796,7 +29796,7 @@
         <v>44571</v>
       </c>
       <c r="E428" s="3" t="n">
-        <v>44804</v>
+        <v>44620</v>
       </c>
       <c r="F428" s="3" t="n">
         <v>44571</v>
@@ -29862,7 +29862,7 @@
         <v>1</v>
       </c>
       <c r="D429" s="3" t="n">
-        <v>44594</v>
+        <v>44635</v>
       </c>
       <c r="E429" s="3" t="n">
         <v>44749</v>
@@ -29931,7 +29931,7 @@
         <v>1</v>
       </c>
       <c r="D430" s="3" t="n">
-        <v>44598</v>
+        <v>44635</v>
       </c>
       <c r="E430" s="3" t="n">
         <v>44742</v>
@@ -30000,7 +30000,7 @@
         <v>1</v>
       </c>
       <c r="D431" s="3" t="n">
-        <v>44590</v>
+        <v>44635</v>
       </c>
       <c r="E431" s="3" t="n">
         <v>44742</v>
@@ -30069,10 +30069,10 @@
         <v>1</v>
       </c>
       <c r="D432" s="3" t="n">
-        <v>44607</v>
+        <v>44635</v>
       </c>
       <c r="E432" s="3" t="n">
-        <v>44742</v>
+        <v>44651</v>
       </c>
       <c r="F432" s="3" t="n">
         <v>1</v>
@@ -30138,7 +30138,7 @@
         <v>1</v>
       </c>
       <c r="D433" s="3" t="n">
-        <v>44593</v>
+        <v>44635</v>
       </c>
       <c r="E433" s="3" t="n">
         <v>44749</v>
@@ -30279,13 +30279,13 @@
         <v>44635</v>
       </c>
       <c r="E435" s="3" t="n">
-        <v>44834</v>
+        <v>44773</v>
       </c>
       <c r="F435" s="3" t="n">
         <v>44635</v>
       </c>
       <c r="G435" s="3" t="n">
-        <v>44834</v>
+        <v>44773</v>
       </c>
       <c r="H435" t="n">
         <v>126</v>
@@ -30414,7 +30414,7 @@
         <v>1</v>
       </c>
       <c r="D437" s="3" t="n">
-        <v>44592</v>
+        <v>44636</v>
       </c>
       <c r="E437" s="3" t="n">
         <v>45107</v>
@@ -30624,7 +30624,7 @@
         <v>44644</v>
       </c>
       <c r="E440" s="3" t="n">
-        <v>44957</v>
+        <v>44865</v>
       </c>
       <c r="F440" s="3" t="n">
         <v>1</v>
@@ -30759,16 +30759,16 @@
         <v>1</v>
       </c>
       <c r="D442" s="3" t="n">
-        <v>44228</v>
+        <v>44713</v>
       </c>
       <c r="E442" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="F442" s="3" t="n">
-        <v>44228</v>
+        <v>44713</v>
       </c>
       <c r="G442" s="3" t="n">
-        <v>44408</v>
+        <v>1</v>
       </c>
       <c r="H442" t="n">
         <v>61</v>
@@ -30900,13 +30900,13 @@
         <v>44648</v>
       </c>
       <c r="E444" s="3" t="n">
-        <v>44957</v>
+        <v>44675</v>
       </c>
       <c r="F444" s="3" t="n">
         <v>44648</v>
       </c>
       <c r="G444" s="3" t="n">
-        <v>44834</v>
+        <v>44675</v>
       </c>
       <c r="H444" t="n">
         <v>135</v>
@@ -31173,7 +31173,7 @@
         <v>1</v>
       </c>
       <c r="D448" s="3" t="n">
-        <v>44734</v>
+        <v>44735</v>
       </c>
       <c r="E448" s="3" t="n">
         <v>44766</v>
@@ -31242,7 +31242,7 @@
         <v>1</v>
       </c>
       <c r="D449" s="3" t="n">
-        <v>44699</v>
+        <v>44700</v>
       </c>
       <c r="E449" s="3" t="n">
         <v>44776</v>
@@ -31311,13 +31311,13 @@
         <v>1</v>
       </c>
       <c r="D450" s="3" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="E450" s="3" t="n">
         <v>45169</v>
       </c>
       <c r="F450" s="3" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="G450" s="3" t="n">
         <v>45169</v>
@@ -31380,13 +31380,13 @@
         <v>1</v>
       </c>
       <c r="D451" s="3" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="E451" s="3" t="n">
         <v>45169</v>
       </c>
       <c r="F451" s="3" t="n">
-        <v>44830</v>
+        <v>44831</v>
       </c>
       <c r="G451" s="3" t="n">
         <v>45169</v>
@@ -31452,7 +31452,7 @@
         <v>44657</v>
       </c>
       <c r="E452" s="3" t="n">
-        <v>44763</v>
+        <v>44749</v>
       </c>
       <c r="F452" s="3" t="n">
         <v>1</v>
@@ -31590,7 +31590,7 @@
         <v>44657</v>
       </c>
       <c r="E454" s="3" t="n">
-        <v>44730</v>
+        <v>44696</v>
       </c>
       <c r="F454" s="3" t="n">
         <v>1</v>
@@ -31656,7 +31656,7 @@
         <v>1</v>
       </c>
       <c r="D455" s="3" t="n">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="E455" s="3" t="n">
         <v>44712</v>
@@ -31725,7 +31725,7 @@
         <v>1</v>
       </c>
       <c r="D456" s="3" t="n">
-        <v>44607</v>
+        <v>44652</v>
       </c>
       <c r="E456" s="3" t="n">
         <v>44742</v>
@@ -31794,7 +31794,7 @@
         <v>1</v>
       </c>
       <c r="D457" s="3" t="n">
-        <v>44599</v>
+        <v>44652</v>
       </c>
       <c r="E457" s="3" t="n">
         <v>44712</v>
@@ -31932,7 +31932,7 @@
         <v>1</v>
       </c>
       <c r="D459" s="3" t="n">
-        <v>44657</v>
+        <v>44750</v>
       </c>
       <c r="E459" s="3" t="n">
         <v>44763</v>
@@ -32078,13 +32078,13 @@
         <v>44665</v>
       </c>
       <c r="E461" s="3" t="n">
-        <v>45108</v>
+        <v>44712</v>
       </c>
       <c r="F461" s="3" t="n">
         <v>44665</v>
       </c>
       <c r="G461" s="3" t="n">
-        <v>44771</v>
+        <v>44712</v>
       </c>
       <c r="H461" t="n">
         <v>48</v>
@@ -32144,16 +32144,16 @@
         <v>1</v>
       </c>
       <c r="D462" s="3" t="n">
-        <v>44665</v>
+        <v>44713</v>
       </c>
       <c r="E462" s="3" t="n">
-        <v>45108</v>
+        <v>44727</v>
       </c>
       <c r="F462" s="3" t="n">
-        <v>44665</v>
+        <v>44713</v>
       </c>
       <c r="G462" s="3" t="n">
-        <v>44771</v>
+        <v>44727</v>
       </c>
       <c r="H462" t="n">
         <v>48</v>
@@ -32282,16 +32282,16 @@
         <v>1</v>
       </c>
       <c r="D464" s="3" t="n">
-        <v>44487</v>
+        <v>44713</v>
       </c>
       <c r="E464" s="3" t="n">
         <v>44773</v>
       </c>
       <c r="F464" s="3" t="n">
-        <v>44487</v>
+        <v>44713</v>
       </c>
       <c r="G464" s="3" t="n">
-        <v>44561</v>
+        <v>1</v>
       </c>
       <c r="H464" t="n">
         <v>113</v>
@@ -32351,7 +32351,7 @@
         <v>1</v>
       </c>
       <c r="D465" s="3" t="n">
-        <v>44652</v>
+        <v>44666</v>
       </c>
       <c r="E465" s="3" t="n">
         <v>44806</v>
@@ -32489,7 +32489,7 @@
         <v>1</v>
       </c>
       <c r="D467" s="3" t="n">
-        <v>44440</v>
+        <v>44682</v>
       </c>
       <c r="E467" s="3" t="n">
         <v>44688</v>
@@ -32827,7 +32827,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -32837,7 +32837,7 @@
         <v>44664</v>
       </c>
       <c r="E472" s="3" t="n">
-        <v>45148</v>
+        <v>44742</v>
       </c>
       <c r="F472" s="3" t="n">
         <v>1</v>
@@ -32903,13 +32903,13 @@
         <v>1</v>
       </c>
       <c r="D473" s="3" t="n">
-        <v>44501</v>
+        <v>44743</v>
       </c>
       <c r="E473" s="3" t="n">
         <v>44799</v>
       </c>
       <c r="F473" s="3" t="n">
-        <v>44501</v>
+        <v>44743</v>
       </c>
       <c r="G473" s="3" t="n">
         <v>44799</v>
@@ -33044,7 +33044,7 @@
         <v>44757</v>
       </c>
       <c r="E475" s="3" t="n">
-        <v>44985</v>
+        <v>44777</v>
       </c>
       <c r="F475" s="3" t="n">
         <v>1</v>
@@ -33113,7 +33113,7 @@
         <v>44667</v>
       </c>
       <c r="E476" s="3" t="n">
-        <v>44804</v>
+        <v>44773</v>
       </c>
       <c r="F476" s="3" t="n">
         <v>44669</v>
@@ -33310,7 +33310,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -33320,7 +33320,7 @@
         <v>44667</v>
       </c>
       <c r="E479" s="3" t="n">
-        <v>45107</v>
+        <v>44804</v>
       </c>
       <c r="F479" s="3" t="n">
         <v>1</v>
@@ -33455,7 +33455,7 @@
         <v>1</v>
       </c>
       <c r="D481" s="3" t="n">
-        <v>44668</v>
+        <v>44764</v>
       </c>
       <c r="E481" s="3" t="n">
         <v>44834</v>
@@ -33527,7 +33527,7 @@
         <v>44667</v>
       </c>
       <c r="E482" s="3" t="n">
-        <v>44773</v>
+        <v>44697</v>
       </c>
       <c r="F482" s="3" t="n">
         <v>1</v>
@@ -33593,13 +33593,13 @@
         <v>1</v>
       </c>
       <c r="D483" s="3" t="n">
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="E483" s="3" t="n">
         <v>44851</v>
       </c>
       <c r="F483" s="3" t="n">
-        <v>44788</v>
+        <v>44789</v>
       </c>
       <c r="G483" s="3" t="n">
         <v>44851</v>
@@ -33869,16 +33869,16 @@
         <v>1</v>
       </c>
       <c r="D487" s="3" t="n">
-        <v>44648</v>
+        <v>44676</v>
       </c>
       <c r="E487" s="3" t="n">
-        <v>44957</v>
+        <v>44773</v>
       </c>
       <c r="F487" s="3" t="n">
-        <v>44648</v>
+        <v>44676</v>
       </c>
       <c r="G487" s="3" t="n">
-        <v>44834</v>
+        <v>44773</v>
       </c>
       <c r="H487" t="n">
         <v>135</v>
@@ -33931,17 +33931,17 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C488" t="n">
         <v>1</v>
       </c>
       <c r="D488" s="3" t="n">
-        <v>44680</v>
+        <v>44743</v>
       </c>
       <c r="E488" s="3" t="n">
-        <v>45169</v>
+        <v>44804</v>
       </c>
       <c r="F488" s="3" t="n">
         <v>1</v>
@@ -34000,7 +34000,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -34010,7 +34010,7 @@
         <v>44680</v>
       </c>
       <c r="E489" s="3" t="n">
-        <v>45169</v>
+        <v>44742</v>
       </c>
       <c r="F489" s="3" t="n">
         <v>1</v>
@@ -34283,13 +34283,13 @@
         <v>1</v>
       </c>
       <c r="D493" s="3" t="n">
-        <v>44665</v>
+        <v>44728</v>
       </c>
       <c r="E493" s="3" t="n">
         <v>45108</v>
       </c>
       <c r="F493" s="3" t="n">
-        <v>44665</v>
+        <v>44728</v>
       </c>
       <c r="G493" s="3" t="n">
         <v>44771</v>
@@ -34490,13 +34490,13 @@
         <v>1</v>
       </c>
       <c r="D496" s="3" t="n">
-        <v>44620</v>
+        <v>44682</v>
       </c>
       <c r="E496" s="3" t="n">
         <v>44773</v>
       </c>
       <c r="F496" s="3" t="n">
-        <v>44620</v>
+        <v>44682</v>
       </c>
       <c r="G496" s="3" t="n">
         <v>44757</v>
@@ -34631,7 +34631,7 @@
         <v>44743</v>
       </c>
       <c r="E498" s="3" t="n">
-        <v>44783</v>
+        <v>44774</v>
       </c>
       <c r="F498" s="3" t="n">
         <v>1</v>
@@ -34697,7 +34697,7 @@
         <v>1</v>
       </c>
       <c r="D499" s="3" t="n">
-        <v>44657</v>
+        <v>44697</v>
       </c>
       <c r="E499" s="3" t="n">
         <v>44730</v>
@@ -34838,7 +34838,7 @@
         <v>44685</v>
       </c>
       <c r="E501" s="3" t="n">
-        <v>44930</v>
+        <v>44697</v>
       </c>
       <c r="F501" s="3" t="n">
         <v>1</v>
@@ -34904,7 +34904,7 @@
         <v>1</v>
       </c>
       <c r="D502" s="3" t="n">
-        <v>44804</v>
+        <v>44805</v>
       </c>
       <c r="E502" s="3" t="n">
         <v>45107</v>
@@ -35042,23 +35042,23 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>finalizada</t>
+          <t>inhouse</t>
         </is>
       </c>
       <c r="C504" t="n">
         <v>1</v>
       </c>
       <c r="D504" s="3" t="n">
-        <v>44484</v>
+        <v>44774</v>
       </c>
       <c r="E504" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="F504" s="3" t="n">
-        <v>44484</v>
+        <v>44774</v>
       </c>
       <c r="G504" s="3" t="n">
-        <v>44773</v>
+        <v>1</v>
       </c>
       <c r="H504" t="n">
         <v>84</v>
@@ -35949,7 +35949,7 @@
         <v>44805</v>
       </c>
       <c r="E517" s="3" t="n">
-        <v>45047</v>
+        <v>44957</v>
       </c>
       <c r="F517" s="3" t="n">
         <v>1</v>
@@ -36215,7 +36215,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -36225,7 +36225,7 @@
         <v>44788</v>
       </c>
       <c r="E521" s="3" t="n">
-        <v>45107</v>
+        <v>44795</v>
       </c>
       <c r="F521" s="3" t="n">
         <v>44788</v>
@@ -36291,7 +36291,7 @@
         <v>1</v>
       </c>
       <c r="D522" s="3" t="n">
-        <v>44667</v>
+        <v>44698</v>
       </c>
       <c r="E522" s="3" t="n">
         <v>44773</v>
@@ -36360,7 +36360,7 @@
         <v>1</v>
       </c>
       <c r="D523" s="3" t="n">
-        <v>44435</v>
+        <v>44713</v>
       </c>
       <c r="E523" s="3" t="n">
         <v>44742</v>
@@ -36429,7 +36429,7 @@
         <v>1</v>
       </c>
       <c r="D524" s="3" t="n">
-        <v>44685</v>
+        <v>44698</v>
       </c>
       <c r="E524" s="3" t="n">
         <v>44930</v>
@@ -36498,13 +36498,13 @@
         <v>1</v>
       </c>
       <c r="D525" s="3" t="n">
-        <v>44470</v>
+        <v>44727</v>
       </c>
       <c r="E525" s="3" t="n">
-        <v>45169</v>
+        <v>44804</v>
       </c>
       <c r="F525" s="3" t="n">
-        <v>44470</v>
+        <v>44727</v>
       </c>
       <c r="G525" s="3" t="n">
         <v>44742</v>
@@ -36567,13 +36567,13 @@
         <v>1</v>
       </c>
       <c r="D526" s="3" t="n">
-        <v>44470</v>
+        <v>44728</v>
       </c>
       <c r="E526" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="F526" s="3" t="n">
-        <v>44470</v>
+        <v>44728</v>
       </c>
       <c r="G526" s="3" t="n">
         <v>44742</v>
@@ -36636,13 +36636,13 @@
         <v>1</v>
       </c>
       <c r="D527" s="3" t="n">
-        <v>44470</v>
+        <v>44728</v>
       </c>
       <c r="E527" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="F527" s="3" t="n">
-        <v>44470</v>
+        <v>44728</v>
       </c>
       <c r="G527" s="3" t="n">
         <v>44742</v>
@@ -36705,13 +36705,13 @@
         <v>1</v>
       </c>
       <c r="D528" s="3" t="n">
-        <v>44501</v>
+        <v>44713</v>
       </c>
       <c r="E528" s="3" t="n">
         <v>44773</v>
       </c>
       <c r="F528" s="3" t="n">
-        <v>44501</v>
+        <v>44713</v>
       </c>
       <c r="G528" s="3" t="n">
         <v>44773</v>
@@ -36774,13 +36774,13 @@
         <v>1</v>
       </c>
       <c r="D529" s="3" t="n">
-        <v>44493</v>
+        <v>44713</v>
       </c>
       <c r="E529" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="F529" s="3" t="n">
-        <v>44493</v>
+        <v>44713</v>
       </c>
       <c r="G529" s="3" t="n">
         <v>44737</v>
@@ -36848,16 +36848,16 @@
         <v>1</v>
       </c>
       <c r="D530" s="3" t="n">
-        <v>44491</v>
+        <v>44713</v>
       </c>
       <c r="E530" s="3" t="n">
         <v>44763</v>
       </c>
       <c r="F530" s="3" t="n">
-        <v>44491</v>
+        <v>44713</v>
       </c>
       <c r="G530" s="3" t="n">
-        <v>44673</v>
+        <v>1</v>
       </c>
       <c r="H530" t="n">
         <v>43</v>
@@ -36980,13 +36980,13 @@
         <v>1</v>
       </c>
       <c r="D532" s="3" t="n">
-        <v>44450</v>
+        <v>44713</v>
       </c>
       <c r="E532" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="F532" s="3" t="n">
-        <v>44450</v>
+        <v>44713</v>
       </c>
       <c r="G532" s="3" t="n">
         <v>44742</v>
@@ -37261,16 +37261,16 @@
         <v>1</v>
       </c>
       <c r="D536" s="3" t="n">
-        <v>44500</v>
+        <v>44713</v>
       </c>
       <c r="E536" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="F536" s="3" t="n">
-        <v>44500</v>
+        <v>44713</v>
       </c>
       <c r="G536" s="3" t="n">
-        <v>44592</v>
+        <v>1</v>
       </c>
       <c r="H536" t="n">
         <v>113</v>
@@ -37540,13 +37540,13 @@
         <v>44704</v>
       </c>
       <c r="E540" s="3" t="n">
-        <v>44926</v>
+        <v>44773</v>
       </c>
       <c r="F540" s="3" t="n">
         <v>44705</v>
       </c>
       <c r="G540" s="3" t="n">
-        <v>44895</v>
+        <v>44773</v>
       </c>
       <c r="H540" t="n">
         <v>147</v>
@@ -37668,7 +37668,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -37678,7 +37678,7 @@
         <v>44713</v>
       </c>
       <c r="E542" s="3" t="n">
-        <v>45107</v>
+        <v>44742</v>
       </c>
       <c r="F542" s="3" t="n">
         <v>44713</v>
@@ -37747,7 +37747,7 @@
         <v>44704</v>
       </c>
       <c r="E543" s="3" t="n">
-        <v>44806</v>
+        <v>44712</v>
       </c>
       <c r="F543" s="3" t="n">
         <v>1</v>
@@ -37806,7 +37806,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -37816,7 +37816,7 @@
         <v>44713</v>
       </c>
       <c r="E544" s="3" t="n">
-        <v>45107</v>
+        <v>44742</v>
       </c>
       <c r="F544" s="3" t="n">
         <v>1</v>
@@ -37951,16 +37951,16 @@
         <v>1</v>
       </c>
       <c r="D546" s="3" t="n">
-        <v>44501</v>
+        <v>44713</v>
       </c>
       <c r="E546" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="F546" s="3" t="n">
-        <v>44501</v>
+        <v>44713</v>
       </c>
       <c r="G546" s="3" t="n">
-        <v>44712</v>
+        <v>1</v>
       </c>
       <c r="H546" t="n">
         <v>118</v>
@@ -38158,7 +38158,7 @@
         <v>1</v>
       </c>
       <c r="D549" s="3" t="n">
-        <v>44594</v>
+        <v>44713</v>
       </c>
       <c r="E549" s="3" t="n">
         <v>44742</v>
@@ -38434,7 +38434,7 @@
         <v>1</v>
       </c>
       <c r="D553" s="3" t="n">
-        <v>44599</v>
+        <v>44713</v>
       </c>
       <c r="E553" s="3" t="n">
         <v>44895</v>
@@ -38848,10 +38848,10 @@
         <v>1</v>
       </c>
       <c r="D559" s="3" t="n">
-        <v>44704</v>
+        <v>44713</v>
       </c>
       <c r="E559" s="3" t="n">
-        <v>44806</v>
+        <v>44804</v>
       </c>
       <c r="F559" s="3" t="n">
         <v>1</v>
@@ -38989,7 +38989,7 @@
         <v>44715</v>
       </c>
       <c r="E561" s="3" t="n">
-        <v>44862</v>
+        <v>44773</v>
       </c>
       <c r="F561" s="3" t="n">
         <v>1</v>
@@ -39048,7 +39048,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -39058,7 +39058,7 @@
         <v>44715</v>
       </c>
       <c r="E562" s="3" t="n">
-        <v>45169</v>
+        <v>44742</v>
       </c>
       <c r="F562" s="3" t="n">
         <v>1</v>
@@ -39817,7 +39817,7 @@
         <v>44720</v>
       </c>
       <c r="E573" s="3" t="n">
-        <v>44804</v>
+        <v>44742</v>
       </c>
       <c r="F573" s="3" t="n">
         <v>1</v>
@@ -40093,7 +40093,7 @@
         <v>44719</v>
       </c>
       <c r="E577" s="3" t="n">
-        <v>44800</v>
+        <v>44761</v>
       </c>
       <c r="F577" s="3" t="n">
         <v>1</v>
@@ -40159,16 +40159,16 @@
         <v>1</v>
       </c>
       <c r="D578" s="3" t="n">
-        <v>44593</v>
+        <v>44713</v>
       </c>
       <c r="E578" s="3" t="n">
         <v>44741</v>
       </c>
       <c r="F578" s="3" t="n">
-        <v>44593</v>
+        <v>44713</v>
       </c>
       <c r="G578" s="3" t="n">
-        <v>44681</v>
+        <v>1</v>
       </c>
       <c r="H578" t="n">
         <v>112</v>
@@ -41545,7 +41545,7 @@
         <v>1</v>
       </c>
       <c r="D598" s="3" t="n">
-        <v>44593</v>
+        <v>44746</v>
       </c>
       <c r="E598" s="3" t="n">
         <v>44773</v>
@@ -41614,7 +41614,7 @@
         <v>1</v>
       </c>
       <c r="D599" s="3" t="n">
-        <v>44607</v>
+        <v>44746</v>
       </c>
       <c r="E599" s="3" t="n">
         <v>44773</v>
@@ -41821,16 +41821,16 @@
         <v>1</v>
       </c>
       <c r="D602" s="3" t="n">
-        <v>44463</v>
+        <v>44743</v>
       </c>
       <c r="E602" s="3" t="n">
         <v>44773</v>
       </c>
       <c r="F602" s="3" t="n">
-        <v>44463</v>
+        <v>44743</v>
       </c>
       <c r="G602" s="3" t="n">
-        <v>44742</v>
+        <v>1</v>
       </c>
       <c r="H602" t="n">
         <v>48</v>
@@ -41883,17 +41883,17 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C603" t="n">
         <v>1</v>
       </c>
       <c r="D603" s="3" t="n">
-        <v>44664</v>
+        <v>44743</v>
       </c>
       <c r="E603" s="3" t="n">
-        <v>45148</v>
+        <v>45032</v>
       </c>
       <c r="F603" s="3" t="n">
         <v>1</v>
@@ -41959,7 +41959,7 @@
         <v>1</v>
       </c>
       <c r="D604" s="3" t="n">
-        <v>44720</v>
+        <v>44743</v>
       </c>
       <c r="E604" s="3" t="n">
         <v>44804</v>
@@ -42166,16 +42166,16 @@
         <v>1</v>
       </c>
       <c r="D607" s="3" t="n">
-        <v>44463</v>
+        <v>44743</v>
       </c>
       <c r="E607" s="3" t="n">
-        <v>45107</v>
+        <v>44809</v>
       </c>
       <c r="F607" s="3" t="n">
-        <v>44463</v>
+        <v>44743</v>
       </c>
       <c r="G607" s="3" t="n">
-        <v>44742</v>
+        <v>1</v>
       </c>
       <c r="H607" t="n">
         <v>48</v>
@@ -42435,7 +42435,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -42445,7 +42445,7 @@
         <v>44805</v>
       </c>
       <c r="E611" s="3" t="n">
-        <v>45107</v>
+        <v>45020</v>
       </c>
       <c r="F611" s="3" t="n">
         <v>1</v>
@@ -42856,13 +42856,13 @@
         <v>1</v>
       </c>
       <c r="D617" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="E617" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="F617" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="G617" s="3" t="n">
         <v>1</v>
@@ -42918,17 +42918,17 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C618" t="n">
         <v>1</v>
       </c>
       <c r="D618" s="3" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="E618" s="3" t="n">
-        <v>45107</v>
+        <v>44804</v>
       </c>
       <c r="F618" s="3" t="n">
         <v>1</v>
@@ -42994,7 +42994,7 @@
         <v>1</v>
       </c>
       <c r="D619" s="3" t="n">
-        <v>44809</v>
+        <v>44810</v>
       </c>
       <c r="E619" s="3" t="n">
         <v>45085</v>
@@ -43194,17 +43194,17 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C622" t="n">
         <v>1</v>
       </c>
       <c r="D622" s="3" t="n">
-        <v>44715</v>
+        <v>44743</v>
       </c>
       <c r="E622" s="3" t="n">
-        <v>45169</v>
+        <v>44804</v>
       </c>
       <c r="F622" s="3" t="n">
         <v>1</v>
@@ -43332,17 +43332,17 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C624" t="n">
         <v>1</v>
       </c>
       <c r="D624" s="3" t="n">
-        <v>44790</v>
+        <v>44791</v>
       </c>
       <c r="E624" s="3" t="n">
-        <v>45169</v>
+        <v>44957</v>
       </c>
       <c r="F624" s="3" t="n">
         <v>1</v>
@@ -43684,7 +43684,7 @@
         <v>1</v>
       </c>
       <c r="D629" s="3" t="n">
-        <v>44680</v>
+        <v>44805</v>
       </c>
       <c r="E629" s="3" t="n">
         <v>45169</v>
@@ -43753,13 +43753,13 @@
         <v>1</v>
       </c>
       <c r="D630" s="3" t="n">
-        <v>44470</v>
+        <v>44805</v>
       </c>
       <c r="E630" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="F630" s="3" t="n">
-        <v>44803</v>
+        <v>44805</v>
       </c>
       <c r="G630" s="3" t="n">
         <v>45107</v>
@@ -43894,7 +43894,7 @@
         <v>44753</v>
       </c>
       <c r="E632" s="3" t="n">
-        <v>44785</v>
+        <v>44770</v>
       </c>
       <c r="F632" s="3" t="n">
         <v>1</v>
@@ -44377,7 +44377,7 @@
         <v>44752</v>
       </c>
       <c r="E639" s="3" t="n">
-        <v>44957</v>
+        <v>44804</v>
       </c>
       <c r="F639" s="3" t="n">
         <v>1</v>
@@ -44643,7 +44643,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -44653,13 +44653,13 @@
         <v>44805</v>
       </c>
       <c r="E643" s="3" t="n">
-        <v>45107</v>
+        <v>44926</v>
       </c>
       <c r="F643" s="3" t="n">
         <v>44805</v>
       </c>
       <c r="G643" s="3" t="n">
-        <v>45107</v>
+        <v>44926</v>
       </c>
       <c r="H643" t="n">
         <v>60</v>
@@ -44712,7 +44712,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -44722,7 +44722,7 @@
         <v>44760</v>
       </c>
       <c r="E644" s="3" t="n">
-        <v>45107</v>
+        <v>44938</v>
       </c>
       <c r="F644" s="3" t="n">
         <v>1</v>
@@ -44860,7 +44860,7 @@
         <v>44802</v>
       </c>
       <c r="E646" s="3" t="n">
-        <v>44957</v>
+        <v>44804</v>
       </c>
       <c r="F646" s="3" t="n">
         <v>1</v>
@@ -45271,7 +45271,7 @@
         <v>1</v>
       </c>
       <c r="D652" s="3" t="n">
-        <v>44791</v>
+        <v>44792</v>
       </c>
       <c r="E652" s="3" t="n">
         <v>44985</v>
@@ -45340,7 +45340,7 @@
         <v>1</v>
       </c>
       <c r="D653" s="3" t="n">
-        <v>44757</v>
+        <v>44778</v>
       </c>
       <c r="E653" s="3" t="n">
         <v>44985</v>
@@ -45478,13 +45478,13 @@
         <v>1</v>
       </c>
       <c r="D655" s="3" t="n">
-        <v>44805</v>
+        <v>44927</v>
       </c>
       <c r="E655" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="F655" s="3" t="n">
-        <v>44805</v>
+        <v>44927</v>
       </c>
       <c r="G655" s="3" t="n">
         <v>45107</v>
@@ -45547,7 +45547,7 @@
         <v>1</v>
       </c>
       <c r="D656" s="3" t="n">
-        <v>44719</v>
+        <v>44762</v>
       </c>
       <c r="E656" s="3" t="n">
         <v>44800</v>
@@ -45616,7 +45616,7 @@
         <v>1</v>
       </c>
       <c r="D657" s="3" t="n">
-        <v>44773</v>
+        <v>44774</v>
       </c>
       <c r="E657" s="3" t="n">
         <v>44804</v>
@@ -45757,7 +45757,7 @@
         <v>44668</v>
       </c>
       <c r="E659" s="3" t="n">
-        <v>44834</v>
+        <v>44763</v>
       </c>
       <c r="F659" s="3" t="n">
         <v>1</v>
@@ -46444,13 +46444,13 @@
         <v>1</v>
       </c>
       <c r="D669" s="3" t="n">
-        <v>44635</v>
+        <v>44774</v>
       </c>
       <c r="E669" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="F669" s="3" t="n">
-        <v>44635</v>
+        <v>44774</v>
       </c>
       <c r="G669" s="3" t="n">
         <v>44834</v>
@@ -46513,16 +46513,16 @@
         <v>1</v>
       </c>
       <c r="D670" s="3" t="n">
-        <v>44667</v>
+        <v>44774</v>
       </c>
       <c r="E670" s="3" t="n">
         <v>44804</v>
       </c>
       <c r="F670" s="3" t="n">
-        <v>44669</v>
+        <v>44774</v>
       </c>
       <c r="G670" s="3" t="n">
-        <v>44773</v>
+        <v>1</v>
       </c>
       <c r="H670" t="n">
         <v>136</v>
@@ -46789,7 +46789,7 @@
         <v>1</v>
       </c>
       <c r="D674" s="3" t="n">
-        <v>44438</v>
+        <v>44797</v>
       </c>
       <c r="E674" s="3" t="n">
         <v>45169</v>
@@ -47068,7 +47068,7 @@
         <v>44835</v>
       </c>
       <c r="E678" s="3" t="n">
-        <v>45056</v>
+        <v>44926</v>
       </c>
       <c r="F678" s="3" t="n">
         <v>1</v>
@@ -47203,7 +47203,7 @@
         <v>1</v>
       </c>
       <c r="D680" s="3" t="n">
-        <v>44753</v>
+        <v>44771</v>
       </c>
       <c r="E680" s="3" t="n">
         <v>44785</v>
@@ -47272,7 +47272,7 @@
         <v>1</v>
       </c>
       <c r="D681" s="3" t="n">
-        <v>44652</v>
+        <v>44771</v>
       </c>
       <c r="E681" s="3" t="n">
         <v>44804</v>
@@ -47479,13 +47479,13 @@
         <v>1</v>
       </c>
       <c r="D684" s="3" t="n">
-        <v>44585</v>
+        <v>44792</v>
       </c>
       <c r="E684" s="3" t="n">
         <v>44895</v>
       </c>
       <c r="F684" s="3" t="n">
-        <v>44585</v>
+        <v>44792</v>
       </c>
       <c r="G684" s="3" t="n">
         <v>44804</v>
@@ -47893,13 +47893,13 @@
         <v>1</v>
       </c>
       <c r="D690" s="3" t="n">
-        <v>44704</v>
+        <v>44774</v>
       </c>
       <c r="E690" s="3" t="n">
         <v>44926</v>
       </c>
       <c r="F690" s="3" t="n">
-        <v>44705</v>
+        <v>44774</v>
       </c>
       <c r="G690" s="3" t="n">
         <v>44895</v>
@@ -48034,7 +48034,7 @@
         <v>44774</v>
       </c>
       <c r="E692" s="3" t="n">
-        <v>44834</v>
+        <v>44804</v>
       </c>
       <c r="F692" s="3" t="n">
         <v>1</v>
@@ -48100,13 +48100,13 @@
         <v>1</v>
       </c>
       <c r="D693" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="E693" s="3" t="n">
         <v>44957</v>
       </c>
       <c r="F693" s="3" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="G693" s="3" t="n">
         <v>1</v>
@@ -48238,7 +48238,7 @@
         <v>1</v>
       </c>
       <c r="D695" s="3" t="n">
-        <v>44607</v>
+        <v>44774</v>
       </c>
       <c r="E695" s="3" t="n">
         <v>44865</v>
@@ -48307,7 +48307,7 @@
         <v>1</v>
       </c>
       <c r="D696" s="3" t="n">
-        <v>44752</v>
+        <v>44805</v>
       </c>
       <c r="E696" s="3" t="n">
         <v>44957</v>
@@ -48445,7 +48445,7 @@
         <v>1</v>
       </c>
       <c r="D698" s="3" t="n">
-        <v>44774</v>
+        <v>44775</v>
       </c>
       <c r="E698" s="3" t="n">
         <v>44805</v>
@@ -48787,10 +48787,10 @@
         <v>1</v>
       </c>
       <c r="D703" s="3" t="n">
-        <v>44715</v>
+        <v>44774</v>
       </c>
       <c r="E703" s="3" t="n">
-        <v>44862</v>
+        <v>44804</v>
       </c>
       <c r="F703" s="3" t="n">
         <v>1</v>
@@ -49414,13 +49414,13 @@
         <v>1</v>
       </c>
       <c r="D712" s="3" t="n">
-        <v>44648</v>
+        <v>44774</v>
       </c>
       <c r="E712" s="3" t="n">
         <v>44957</v>
       </c>
       <c r="F712" s="3" t="n">
-        <v>44648</v>
+        <v>44774</v>
       </c>
       <c r="G712" s="3" t="n">
         <v>44834</v>
@@ -49621,7 +49621,7 @@
         <v>1</v>
       </c>
       <c r="D715" s="3" t="n">
-        <v>44801</v>
+        <v>44802</v>
       </c>
       <c r="E715" s="3" t="n">
         <v>44844</v>
@@ -49752,7 +49752,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C717" t="n">
@@ -49762,7 +49762,7 @@
         <v>44835</v>
       </c>
       <c r="E717" s="3" t="n">
-        <v>45138</v>
+        <v>44957</v>
       </c>
       <c r="F717" s="3" t="n">
         <v>1</v>
@@ -49966,16 +49966,16 @@
         <v>1</v>
       </c>
       <c r="D720" s="3" t="n">
-        <v>44470</v>
+        <v>44805</v>
       </c>
       <c r="E720" s="3" t="n">
         <v>44957</v>
       </c>
       <c r="F720" s="3" t="n">
-        <v>44470</v>
+        <v>44805</v>
       </c>
       <c r="G720" s="3" t="n">
-        <v>44738</v>
+        <v>1</v>
       </c>
       <c r="H720" t="n">
         <v>86</v>
@@ -50097,7 +50097,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C722" t="n">
@@ -50107,7 +50107,7 @@
         <v>44811</v>
       </c>
       <c r="E722" s="3" t="n">
-        <v>45199</v>
+        <v>44957</v>
       </c>
       <c r="F722" s="3" t="n">
         <v>1</v>
@@ -50449,7 +50449,7 @@
         <v>1</v>
       </c>
       <c r="D727" s="3" t="n">
-        <v>44802</v>
+        <v>44805</v>
       </c>
       <c r="E727" s="3" t="n">
         <v>44957</v>
@@ -50511,23 +50511,23 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>finalizada</t>
+          <t>inhouse</t>
         </is>
       </c>
       <c r="C728" t="n">
         <v>1</v>
       </c>
       <c r="D728" s="3" t="n">
-        <v>44470</v>
+        <v>44806</v>
       </c>
       <c r="E728" s="3" t="n">
         <v>45169</v>
       </c>
       <c r="F728" s="3" t="n">
-        <v>44470</v>
+        <v>44806</v>
       </c>
       <c r="G728" s="3" t="n">
-        <v>44742</v>
+        <v>1</v>
       </c>
       <c r="H728" t="n">
         <v>23</v>
@@ -52230,17 +52230,17 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C753" t="n">
         <v>1</v>
       </c>
       <c r="D753" s="3" t="n">
-        <v>44797</v>
+        <v>44805</v>
       </c>
       <c r="E753" s="3" t="n">
-        <v>45107</v>
+        <v>44834</v>
       </c>
       <c r="F753" s="3" t="n">
         <v>1</v>
@@ -52368,7 +52368,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C755" t="n">
@@ -52378,7 +52378,7 @@
         <v>44805</v>
       </c>
       <c r="E755" s="3" t="n">
-        <v>45107</v>
+        <v>44926</v>
       </c>
       <c r="F755" s="3" t="n">
         <v>1</v>
@@ -53418,7 +53418,7 @@
         <v>44805</v>
       </c>
       <c r="E770" s="3" t="n">
-        <v>45077</v>
+        <v>44834</v>
       </c>
       <c r="F770" s="3" t="n">
         <v>1</v>
@@ -53691,13 +53691,13 @@
         <v>1</v>
       </c>
       <c r="D774" s="3" t="n">
-        <v>44788</v>
+        <v>44796</v>
       </c>
       <c r="E774" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="F774" s="3" t="n">
-        <v>44788</v>
+        <v>44796</v>
       </c>
       <c r="G774" s="3" t="n">
         <v>1</v>
@@ -53763,7 +53763,7 @@
         <v>44808</v>
       </c>
       <c r="E775" s="3" t="n">
-        <v>44928</v>
+        <v>44926</v>
       </c>
       <c r="F775" s="3" t="n">
         <v>1</v>
@@ -53822,7 +53822,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C776" t="n">
@@ -53832,13 +53832,13 @@
         <v>44835</v>
       </c>
       <c r="E776" s="3" t="n">
-        <v>45107</v>
+        <v>44926</v>
       </c>
       <c r="F776" s="3" t="n">
         <v>44835</v>
       </c>
       <c r="G776" s="3" t="n">
-        <v>45107</v>
+        <v>44926</v>
       </c>
       <c r="H776" t="n">
         <v>93</v>
@@ -54909,7 +54909,7 @@
         <v>1</v>
       </c>
       <c r="D792" s="3" t="n">
-        <v>44667</v>
+        <v>44805</v>
       </c>
       <c r="E792" s="3" t="n">
         <v>45107</v>
@@ -54978,7 +54978,7 @@
         <v>1</v>
       </c>
       <c r="D793" s="3" t="n">
-        <v>44704</v>
+        <v>44805</v>
       </c>
       <c r="E793" s="3" t="n">
         <v>44806</v>
@@ -55173,13 +55173,13 @@
         <v>1</v>
       </c>
       <c r="D796" s="3" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="E796" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="F796" s="3" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="G796" s="3" t="n">
         <v>45107</v>
@@ -55373,7 +55373,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C799" t="n">
@@ -55383,13 +55383,13 @@
         <v>44835</v>
       </c>
       <c r="E799" s="3" t="n">
-        <v>45138</v>
+        <v>44941</v>
       </c>
       <c r="F799" s="3" t="n">
         <v>44835</v>
       </c>
       <c r="G799" s="3" t="n">
-        <v>45107</v>
+        <v>44941</v>
       </c>
       <c r="H799" t="n">
         <v>22</v>
@@ -55925,23 +55925,23 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>finalizada</t>
+          <t>inhouse</t>
         </is>
       </c>
       <c r="C807" t="n">
         <v>1</v>
       </c>
       <c r="D807" s="3" t="n">
-        <v>44463</v>
+        <v>44810</v>
       </c>
       <c r="E807" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="F807" s="3" t="n">
-        <v>44463</v>
+        <v>44810</v>
       </c>
       <c r="G807" s="3" t="n">
-        <v>44742</v>
+        <v>1</v>
       </c>
       <c r="H807" t="n">
         <v>48</v>
@@ -55994,17 +55994,17 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C808" t="n">
         <v>1</v>
       </c>
       <c r="D808" s="3" t="n">
-        <v>44797</v>
+        <v>44798</v>
       </c>
       <c r="E808" s="3" t="n">
-        <v>45107</v>
+        <v>44804</v>
       </c>
       <c r="F808" s="3" t="n">
         <v>1</v>
@@ -56063,17 +56063,17 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C809" t="n">
         <v>1</v>
       </c>
       <c r="D809" s="3" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="E809" s="3" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="F809" s="3" t="n">
         <v>1</v>
@@ -57519,7 +57519,7 @@
         <v>1</v>
       </c>
       <c r="D830" s="3" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="E830" s="3" t="n">
         <v>44834</v>
@@ -57726,10 +57726,10 @@
         <v>1</v>
       </c>
       <c r="D833" s="3" t="n">
-        <v>44715</v>
+        <v>44927</v>
       </c>
       <c r="E833" s="3" t="n">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="F833" s="3" t="n">
         <v>1</v>
@@ -58071,7 +58071,7 @@
         <v>1</v>
       </c>
       <c r="D838" s="3" t="n">
-        <v>44652</v>
+        <v>44835</v>
       </c>
       <c r="E838" s="3" t="n">
         <v>45122</v>
@@ -58281,7 +58281,7 @@
         <v>44805</v>
       </c>
       <c r="E841" s="3" t="n">
-        <v>45016</v>
+        <v>44879</v>
       </c>
       <c r="F841" s="3" t="n">
         <v>1</v>
@@ -58419,7 +58419,7 @@
         <v>44835</v>
       </c>
       <c r="E843" s="3" t="n">
-        <v>44957</v>
+        <v>44895</v>
       </c>
       <c r="F843" s="3" t="n">
         <v>1</v>
@@ -58623,7 +58623,7 @@
         <v>1</v>
       </c>
       <c r="D846" s="3" t="n">
-        <v>44715</v>
+        <v>44805</v>
       </c>
       <c r="E846" s="3" t="n">
         <v>44862</v>
@@ -58830,10 +58830,10 @@
         <v>1</v>
       </c>
       <c r="D849" s="3" t="n">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="E849" s="3" t="n">
-        <v>44948</v>
+        <v>44895</v>
       </c>
       <c r="F849" s="3" t="n">
         <v>1</v>
@@ -59859,7 +59859,7 @@
         <v>44812</v>
       </c>
       <c r="E864" s="3" t="n">
-        <v>45077</v>
+        <v>44834</v>
       </c>
       <c r="F864" s="3" t="n">
         <v>44812</v>
@@ -60267,7 +60267,7 @@
         <v>44814</v>
       </c>
       <c r="E870" s="3" t="n">
-        <v>44957</v>
+        <v>44926</v>
       </c>
       <c r="F870" s="3" t="n">
         <v>1</v>
@@ -60602,7 +60602,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C875" t="n">
@@ -60612,13 +60612,13 @@
         <v>44835</v>
       </c>
       <c r="E875" s="3" t="n">
-        <v>45107</v>
+        <v>44926</v>
       </c>
       <c r="F875" s="3" t="n">
         <v>44837</v>
       </c>
       <c r="G875" s="3" t="n">
-        <v>45107</v>
+        <v>44926</v>
       </c>
       <c r="H875" t="n">
         <v>92</v>
@@ -60747,13 +60747,13 @@
         <v>1</v>
       </c>
       <c r="D877" s="3" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="E877" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="F877" s="3" t="n">
-        <v>44837</v>
+        <v>44927</v>
       </c>
       <c r="G877" s="3" t="n">
         <v>45107</v>
@@ -60888,7 +60888,7 @@
         <v>44819</v>
       </c>
       <c r="E879" s="3" t="n">
-        <v>44985</v>
+        <v>44834</v>
       </c>
       <c r="F879" s="3" t="n">
         <v>1</v>
@@ -61437,7 +61437,7 @@
         <v>44819</v>
       </c>
       <c r="E887" s="3" t="n">
-        <v>45016</v>
+        <v>44926</v>
       </c>
       <c r="F887" s="3" t="n">
         <v>1</v>
@@ -61496,7 +61496,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C888" t="n">
@@ -61506,7 +61506,7 @@
         <v>44820</v>
       </c>
       <c r="E888" s="3" t="n">
-        <v>45138</v>
+        <v>44957</v>
       </c>
       <c r="F888" s="3" t="n">
         <v>1</v>
@@ -61572,7 +61572,7 @@
         <v>1</v>
       </c>
       <c r="D889" s="3" t="n">
-        <v>44820</v>
+        <v>44830</v>
       </c>
       <c r="E889" s="3" t="n">
         <v>44985</v>
@@ -61641,7 +61641,7 @@
         <v>1</v>
       </c>
       <c r="D890" s="3" t="n">
-        <v>44938</v>
+        <v>44939</v>
       </c>
       <c r="E890" s="3" t="n">
         <v>45077</v>
@@ -61713,7 +61713,7 @@
         <v>44820</v>
       </c>
       <c r="E891" s="3" t="n">
-        <v>44985</v>
+        <v>44829</v>
       </c>
       <c r="F891" s="3" t="n">
         <v>1</v>
@@ -62127,7 +62127,7 @@
         <v>44930</v>
       </c>
       <c r="E897" s="3" t="n">
-        <v>45473</v>
+        <v>45138</v>
       </c>
       <c r="F897" s="3" t="n">
         <v>1</v>
@@ -62546,7 +62546,7 @@
         <v>1</v>
       </c>
       <c r="D903" s="3" t="n">
-        <v>44797</v>
+        <v>44835</v>
       </c>
       <c r="E903" s="3" t="n">
         <v>45107</v>
@@ -62615,7 +62615,7 @@
         <v>1</v>
       </c>
       <c r="D904" s="3" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="E904" s="3" t="n">
         <v>45077</v>
@@ -62677,17 +62677,17 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C905" t="n">
         <v>1</v>
       </c>
       <c r="D905" s="3" t="n">
-        <v>44715</v>
+        <v>44835</v>
       </c>
       <c r="E905" s="3" t="n">
-        <v>45169</v>
+        <v>44926</v>
       </c>
       <c r="F905" s="3" t="n">
         <v>1</v>
@@ -62753,13 +62753,13 @@
         <v>1</v>
       </c>
       <c r="D906" s="3" t="n">
-        <v>44812</v>
+        <v>44835</v>
       </c>
       <c r="E906" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="F906" s="3" t="n">
-        <v>44812</v>
+        <v>44835</v>
       </c>
       <c r="G906" s="3" t="n">
         <v>1</v>
@@ -62891,7 +62891,7 @@
         <v>1</v>
       </c>
       <c r="D908" s="3" t="n">
-        <v>44819</v>
+        <v>44835</v>
       </c>
       <c r="E908" s="3" t="n">
         <v>44985</v>
@@ -62963,7 +62963,7 @@
         <v>44828</v>
       </c>
       <c r="E909" s="3" t="n">
-        <v>45107</v>
+        <v>44926</v>
       </c>
       <c r="F909" s="3" t="n">
         <v>44828</v>
@@ -63029,7 +63029,7 @@
         <v>1</v>
       </c>
       <c r="D910" s="3" t="n">
-        <v>44868</v>
+        <v>44897</v>
       </c>
       <c r="E910" s="3" t="n">
         <v>44996</v>
@@ -63091,7 +63091,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C911" t="n">
@@ -63101,13 +63101,13 @@
         <v>44835</v>
       </c>
       <c r="E911" s="3" t="n">
-        <v>45107</v>
+        <v>44879</v>
       </c>
       <c r="F911" s="3" t="n">
         <v>44841</v>
       </c>
       <c r="G911" s="3" t="n">
-        <v>45107</v>
+        <v>44879</v>
       </c>
       <c r="H911" t="n">
         <v>130</v>
@@ -63160,7 +63160,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C912" t="n">
@@ -63170,7 +63170,7 @@
         <v>44835</v>
       </c>
       <c r="E912" s="3" t="n">
-        <v>45230</v>
+        <v>44985</v>
       </c>
       <c r="F912" s="3" t="n">
         <v>44835</v>
@@ -63229,7 +63229,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C913" t="n">
@@ -63239,7 +63239,7 @@
         <v>44835</v>
       </c>
       <c r="E913" s="3" t="n">
-        <v>45230</v>
+        <v>44879</v>
       </c>
       <c r="F913" s="3" t="n">
         <v>1</v>
@@ -63308,7 +63308,7 @@
         <v>44835</v>
       </c>
       <c r="E914" s="3" t="n">
-        <v>45077</v>
+        <v>44957</v>
       </c>
       <c r="F914" s="3" t="n">
         <v>1</v>
@@ -63857,10 +63857,10 @@
         <v>1</v>
       </c>
       <c r="D922" s="3" t="n">
-        <v>44835</v>
+        <v>44837</v>
       </c>
       <c r="E922" s="3" t="n">
-        <v>45077</v>
+        <v>44926</v>
       </c>
       <c r="F922" s="3" t="n">
         <v>1</v>
@@ -63988,7 +63988,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C924" t="n">
@@ -63998,7 +63998,7 @@
         <v>44839</v>
       </c>
       <c r="E924" s="3" t="n">
-        <v>45169</v>
+        <v>44985</v>
       </c>
       <c r="F924" s="3" t="n">
         <v>1</v>
@@ -64202,7 +64202,7 @@
         <v>1</v>
       </c>
       <c r="D927" s="3" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="E927" s="3" t="n">
         <v>45056</v>
@@ -64345,7 +64345,7 @@
         <v>1</v>
       </c>
       <c r="D929" s="3" t="n">
-        <v>44934</v>
+        <v>44935</v>
       </c>
       <c r="E929" s="3" t="n">
         <v>45016</v>
@@ -64683,7 +64683,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C934" t="n">
@@ -64693,7 +64693,7 @@
         <v>44842</v>
       </c>
       <c r="E934" s="3" t="n">
-        <v>45169</v>
+        <v>44971</v>
       </c>
       <c r="F934" s="3" t="n">
         <v>1</v>
@@ -65245,7 +65245,7 @@
         <v>44858</v>
       </c>
       <c r="E942" s="3" t="n">
-        <v>45077</v>
+        <v>44926</v>
       </c>
       <c r="F942" s="3" t="n">
         <v>1</v>
@@ -65449,7 +65449,7 @@
         <v>1</v>
       </c>
       <c r="D945" s="3" t="n">
-        <v>44644</v>
+        <v>44866</v>
       </c>
       <c r="E945" s="3" t="n">
         <v>44957</v>
@@ -65863,7 +65863,7 @@
         <v>1</v>
       </c>
       <c r="D951" s="3" t="n">
-        <v>44858</v>
+        <v>44927</v>
       </c>
       <c r="E951" s="3" t="n">
         <v>45077</v>
@@ -66142,7 +66142,7 @@
         <v>44868</v>
       </c>
       <c r="E955" s="3" t="n">
-        <v>44996</v>
+        <v>44895</v>
       </c>
       <c r="F955" s="3" t="n">
         <v>1</v>
@@ -66208,13 +66208,13 @@
         <v>1</v>
       </c>
       <c r="D956" s="3" t="n">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="E956" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="F956" s="3" t="n">
-        <v>44841</v>
+        <v>44880</v>
       </c>
       <c r="G956" s="3" t="n">
         <v>45107</v>
@@ -66277,10 +66277,10 @@
         <v>1</v>
       </c>
       <c r="D957" s="3" t="n">
-        <v>44805</v>
+        <v>44880</v>
       </c>
       <c r="E957" s="3" t="n">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="F957" s="3" t="n">
         <v>1</v>
@@ -66477,7 +66477,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C960" t="n">
@@ -66487,7 +66487,7 @@
         <v>44880</v>
       </c>
       <c r="E960" s="3" t="n">
-        <v>45138</v>
+        <v>44926</v>
       </c>
       <c r="F960" s="3" t="n">
         <v>1</v>
@@ -66556,7 +66556,7 @@
         <v>44880</v>
       </c>
       <c r="E961" s="3" t="n">
-        <v>45199</v>
+        <v>45138</v>
       </c>
       <c r="F961" s="3" t="n">
         <v>1</v>
@@ -66891,7 +66891,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C966" t="n">
@@ -66901,7 +66901,7 @@
         <v>44871</v>
       </c>
       <c r="E966" s="3" t="n">
-        <v>45138</v>
+        <v>44985</v>
       </c>
       <c r="F966" s="3" t="n">
         <v>1</v>
@@ -66960,7 +66960,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C967" t="n">
@@ -66970,7 +66970,7 @@
         <v>44880</v>
       </c>
       <c r="E967" s="3" t="n">
-        <v>45138</v>
+        <v>44971</v>
       </c>
       <c r="F967" s="3" t="n">
         <v>1</v>
@@ -67243,7 +67243,7 @@
         <v>1</v>
       </c>
       <c r="D971" s="3" t="n">
-        <v>44835</v>
+        <v>44880</v>
       </c>
       <c r="E971" s="3" t="n">
         <v>45230</v>
@@ -67312,7 +67312,7 @@
         <v>1</v>
       </c>
       <c r="D972" s="3" t="n">
-        <v>44835</v>
+        <v>44896</v>
       </c>
       <c r="E972" s="3" t="n">
         <v>44957</v>
@@ -67450,7 +67450,7 @@
         <v>1</v>
       </c>
       <c r="D974" s="3" t="n">
-        <v>44960</v>
+        <v>44961</v>
       </c>
       <c r="E974" s="3" t="n">
         <v>45045</v>
@@ -67729,7 +67729,7 @@
         <v>44936</v>
       </c>
       <c r="E978" s="3" t="n">
-        <v>45076</v>
+        <v>45016</v>
       </c>
       <c r="F978" s="3" t="n">
         <v>1</v>
@@ -67795,10 +67795,10 @@
         <v>1</v>
       </c>
       <c r="D979" s="3" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="E979" s="3" t="n">
-        <v>45077</v>
+        <v>45016</v>
       </c>
       <c r="F979" s="3" t="n">
         <v>1</v>
@@ -67864,7 +67864,7 @@
         <v>1</v>
       </c>
       <c r="D980" s="3" t="n">
-        <v>44839</v>
+        <v>44986</v>
       </c>
       <c r="E980" s="3" t="n">
         <v>45169</v>
@@ -68002,7 +68002,7 @@
         <v>1</v>
       </c>
       <c r="D982" s="3" t="n">
-        <v>44875</v>
+        <v>44896</v>
       </c>
       <c r="E982" s="3" t="n">
         <v>44948</v>
@@ -68551,13 +68551,13 @@
         <v>44959</v>
       </c>
       <c r="E990" s="3" t="n">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="F990" s="3" t="n">
         <v>44959</v>
       </c>
       <c r="G990" s="3" t="n">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="H990" t="n">
         <v>20</v>
@@ -68610,7 +68610,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C991" t="n">
@@ -68620,7 +68620,7 @@
         <v>44912</v>
       </c>
       <c r="E991" s="3" t="n">
-        <v>45169</v>
+        <v>45046</v>
       </c>
       <c r="F991" s="3" t="n">
         <v>1</v>
@@ -69162,23 +69162,23 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>finalizada</t>
+          <t>inhouse</t>
         </is>
       </c>
       <c r="C999" t="n">
         <v>1</v>
       </c>
       <c r="D999" s="3" t="n">
-        <v>44828</v>
+        <v>44927</v>
       </c>
       <c r="E999" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="F999" s="3" t="n">
-        <v>44828</v>
+        <v>44927</v>
       </c>
       <c r="G999" s="3" t="n">
-        <v>44926</v>
+        <v>1</v>
       </c>
       <c r="H999" t="n">
         <v>113</v>
@@ -69514,7 +69514,7 @@
         <v>1</v>
       </c>
       <c r="D1004" s="3" t="n">
-        <v>44819</v>
+        <v>44927</v>
       </c>
       <c r="E1004" s="3" t="n">
         <v>45016</v>
@@ -69576,17 +69576,17 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1005" t="n">
         <v>1</v>
       </c>
       <c r="D1005" s="3" t="n">
-        <v>45047</v>
+        <v>45048</v>
       </c>
       <c r="E1005" s="3" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="F1005" s="3" t="n">
         <v>1</v>
@@ -69721,7 +69721,7 @@
         <v>1</v>
       </c>
       <c r="D1007" s="3" t="n">
-        <v>44814</v>
+        <v>44927</v>
       </c>
       <c r="E1007" s="3" t="n">
         <v>44957</v>
@@ -69990,7 +69990,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1011" t="n">
@@ -70000,7 +70000,7 @@
         <v>44928</v>
       </c>
       <c r="E1011" s="3" t="n">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="F1011" s="3" t="n">
         <v>1</v>
@@ -70066,7 +70066,7 @@
         <v>1</v>
       </c>
       <c r="D1012" s="3" t="n">
-        <v>44928</v>
+        <v>45017</v>
       </c>
       <c r="E1012" s="3" t="n">
         <v>45169</v>
@@ -70278,7 +70278,7 @@
         <v>1</v>
       </c>
       <c r="D1015" s="3" t="n">
-        <v>44805</v>
+        <v>44927</v>
       </c>
       <c r="E1015" s="3" t="n">
         <v>45107</v>
@@ -70340,7 +70340,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1016" t="n">
@@ -70350,7 +70350,7 @@
         <v>44927</v>
       </c>
       <c r="E1016" s="3" t="n">
-        <v>45107</v>
+        <v>44957</v>
       </c>
       <c r="F1016" s="3" t="n">
         <v>1</v>
@@ -70616,7 +70616,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1020" t="n">
@@ -70626,7 +70626,7 @@
         <v>44967</v>
       </c>
       <c r="E1020" s="3" t="n">
-        <v>45107</v>
+        <v>45046</v>
       </c>
       <c r="F1020" s="3" t="n">
         <v>1</v>
@@ -70692,7 +70692,7 @@
         <v>1</v>
       </c>
       <c r="D1021" s="3" t="n">
-        <v>44967</v>
+        <v>45047</v>
       </c>
       <c r="E1021" s="3" t="n">
         <v>45107</v>
@@ -70761,7 +70761,7 @@
         <v>1</v>
       </c>
       <c r="D1022" s="3" t="n">
-        <v>44943</v>
+        <v>44985</v>
       </c>
       <c r="E1022" s="3" t="n">
         <v>45056</v>
@@ -70830,10 +70830,10 @@
         <v>1</v>
       </c>
       <c r="D1023" s="3" t="n">
-        <v>44655</v>
+        <v>44945</v>
       </c>
       <c r="E1023" s="3" t="n">
-        <v>45443</v>
+        <v>45107</v>
       </c>
       <c r="F1023" s="3" t="n">
         <v>1</v>
@@ -70902,7 +70902,7 @@
         <v>45040</v>
       </c>
       <c r="E1024" s="3" t="n">
-        <v>45747</v>
+        <v>45107</v>
       </c>
       <c r="F1024" s="3" t="n">
         <v>1</v>
@@ -71030,17 +71030,17 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1026" t="n">
         <v>1</v>
       </c>
       <c r="D1026" s="3" t="n">
-        <v>44880</v>
+        <v>44927</v>
       </c>
       <c r="E1026" s="3" t="n">
-        <v>45138</v>
+        <v>45016</v>
       </c>
       <c r="F1026" s="3" t="n">
         <v>1</v>
@@ -71109,7 +71109,7 @@
         <v>44929</v>
       </c>
       <c r="E1027" s="3" t="n">
-        <v>45077</v>
+        <v>44971</v>
       </c>
       <c r="F1027" s="3" t="n">
         <v>1</v>
@@ -71237,7 +71237,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1029" t="n">
@@ -71247,7 +71247,7 @@
         <v>44931</v>
       </c>
       <c r="E1029" s="3" t="n">
-        <v>45107</v>
+        <v>44969</v>
       </c>
       <c r="F1029" s="3" t="n">
         <v>1</v>
@@ -71658,7 +71658,7 @@
         <v>1</v>
       </c>
       <c r="D1035" s="3" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="E1035" s="3" t="n">
         <v>45107</v>
@@ -71720,17 +71720,17 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1036" t="n">
         <v>1</v>
       </c>
       <c r="D1036" s="3" t="n">
-        <v>44760</v>
+        <v>44939</v>
       </c>
       <c r="E1036" s="3" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="F1036" s="3" t="n">
         <v>1</v>
@@ -71796,7 +71796,7 @@
         <v>1</v>
       </c>
       <c r="D1037" s="3" t="n">
-        <v>44805</v>
+        <v>44958</v>
       </c>
       <c r="E1037" s="3" t="n">
         <v>45047</v>
@@ -72417,13 +72417,13 @@
         <v>1</v>
       </c>
       <c r="D1046" s="3" t="n">
-        <v>44835</v>
+        <v>44942</v>
       </c>
       <c r="E1046" s="3" t="n">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="F1046" s="3" t="n">
-        <v>44835</v>
+        <v>44942</v>
       </c>
       <c r="G1046" s="3" t="n">
         <v>45107</v>
@@ -72486,7 +72486,7 @@
         <v>1</v>
       </c>
       <c r="D1047" s="3" t="n">
-        <v>44835</v>
+        <v>44958</v>
       </c>
       <c r="E1047" s="3" t="n">
         <v>45138</v>
@@ -73452,7 +73452,7 @@
         <v>1</v>
       </c>
       <c r="D1061" s="3" t="n">
-        <v>44790</v>
+        <v>44958</v>
       </c>
       <c r="E1061" s="3" t="n">
         <v>45169</v>
@@ -73521,7 +73521,7 @@
         <v>1</v>
       </c>
       <c r="D1062" s="3" t="n">
-        <v>44963</v>
+        <v>44964</v>
       </c>
       <c r="E1062" s="3" t="n">
         <v>45107</v>
@@ -73659,7 +73659,7 @@
         <v>1</v>
       </c>
       <c r="D1064" s="3" t="n">
-        <v>44811</v>
+        <v>44958</v>
       </c>
       <c r="E1064" s="3" t="n">
         <v>45199</v>
@@ -73797,7 +73797,7 @@
         <v>1</v>
       </c>
       <c r="D1066" s="3" t="n">
-        <v>44835</v>
+        <v>44958</v>
       </c>
       <c r="E1066" s="3" t="n">
         <v>45077</v>
@@ -74004,7 +74004,7 @@
         <v>1</v>
       </c>
       <c r="D1069" s="3" t="n">
-        <v>44929</v>
+        <v>44972</v>
       </c>
       <c r="E1069" s="3" t="n">
         <v>45077</v>
@@ -74142,7 +74142,7 @@
         <v>1</v>
       </c>
       <c r="D1071" s="3" t="n">
-        <v>44820</v>
+        <v>44958</v>
       </c>
       <c r="E1071" s="3" t="n">
         <v>45138</v>
@@ -74418,7 +74418,7 @@
         <v>1</v>
       </c>
       <c r="D1075" s="3" t="n">
-        <v>44931</v>
+        <v>44970</v>
       </c>
       <c r="E1075" s="3" t="n">
         <v>45107</v>
@@ -74487,7 +74487,7 @@
         <v>1</v>
       </c>
       <c r="D1076" s="3" t="n">
-        <v>44880</v>
+        <v>44972</v>
       </c>
       <c r="E1076" s="3" t="n">
         <v>45138</v>
@@ -74556,7 +74556,7 @@
         <v>1</v>
       </c>
       <c r="D1077" s="3" t="n">
-        <v>44842</v>
+        <v>44972</v>
       </c>
       <c r="E1077" s="3" t="n">
         <v>45169</v>
@@ -74973,7 +74973,7 @@
         <v>45017</v>
       </c>
       <c r="E1083" s="3" t="n">
-        <v>45199</v>
+        <v>45107</v>
       </c>
       <c r="F1083" s="3" t="n">
         <v>1</v>
@@ -75377,7 +75377,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1089" t="n">
@@ -75387,7 +75387,7 @@
         <v>44964</v>
       </c>
       <c r="E1089" s="3" t="n">
-        <v>45107</v>
+        <v>44971</v>
       </c>
       <c r="F1089" s="3" t="n">
         <v>1</v>
@@ -75732,7 +75732,7 @@
         <v>44943</v>
       </c>
       <c r="E1094" s="3" t="n">
-        <v>45056</v>
+        <v>44984</v>
       </c>
       <c r="F1094" s="3" t="n">
         <v>1</v>
@@ -75929,7 +75929,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1097" t="n">
@@ -75939,7 +75939,7 @@
         <v>45047</v>
       </c>
       <c r="E1097" s="3" t="n">
-        <v>45280</v>
+        <v>45064</v>
       </c>
       <c r="F1097" s="3" t="n">
         <v>1</v>
@@ -76074,7 +76074,7 @@
         <v>1</v>
       </c>
       <c r="D1099" s="3" t="n">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="E1099" s="3" t="n">
         <v>45107</v>
@@ -76136,7 +76136,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1100" t="n">
@@ -76146,7 +76146,7 @@
         <v>44971</v>
       </c>
       <c r="E1100" s="3" t="n">
-        <v>45199</v>
+        <v>45077</v>
       </c>
       <c r="F1100" s="3" t="n">
         <v>1</v>
@@ -76212,7 +76212,7 @@
         <v>1</v>
       </c>
       <c r="D1101" s="3" t="n">
-        <v>45047</v>
+        <v>45065</v>
       </c>
       <c r="E1101" s="3" t="n">
         <v>45280</v>
@@ -76764,7 +76764,7 @@
         <v>1</v>
       </c>
       <c r="D1109" s="3" t="n">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="E1109" s="3" t="n">
         <v>45046</v>
@@ -77033,7 +77033,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1113" t="n">
@@ -77043,7 +77043,7 @@
         <v>44978</v>
       </c>
       <c r="E1113" s="3" t="n">
-        <v>45138</v>
+        <v>45016</v>
       </c>
       <c r="F1113" s="3" t="n">
         <v>1</v>
@@ -77240,14 +77240,14 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>pendientepago</t>
         </is>
       </c>
       <c r="C1116" t="n">
         <v>1</v>
       </c>
       <c r="D1116" s="3" t="n">
-        <v>44930</v>
+        <v>45139</v>
       </c>
       <c r="E1116" s="3" t="n">
         <v>45473</v>
@@ -77386,7 +77386,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1118" t="n">
@@ -77396,13 +77396,13 @@
         <v>45003</v>
       </c>
       <c r="E1118" s="3" t="n">
-        <v>45092</v>
+        <v>45051</v>
       </c>
       <c r="F1118" s="3" t="n">
         <v>45003</v>
       </c>
       <c r="G1118" s="3" t="n">
-        <v>45092</v>
+        <v>45051</v>
       </c>
       <c r="H1118" t="n">
         <v>118</v>
@@ -77462,7 +77462,7 @@
         <v>1</v>
       </c>
       <c r="D1119" s="3" t="n">
-        <v>44871</v>
+        <v>44986</v>
       </c>
       <c r="E1119" s="3" t="n">
         <v>45138</v>
@@ -77531,13 +77531,13 @@
         <v>1</v>
       </c>
       <c r="D1120" s="3" t="n">
-        <v>45003</v>
+        <v>45052</v>
       </c>
       <c r="E1120" s="3" t="n">
         <v>45092</v>
       </c>
       <c r="F1120" s="3" t="n">
-        <v>45003</v>
+        <v>45052</v>
       </c>
       <c r="G1120" s="3" t="n">
         <v>45092</v>
@@ -77669,7 +77669,7 @@
         <v>1</v>
       </c>
       <c r="D1122" s="3" t="n">
-        <v>44805</v>
+        <v>44986</v>
       </c>
       <c r="E1122" s="3" t="n">
         <v>45016</v>
@@ -77731,7 +77731,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1123" t="n">
@@ -77741,7 +77741,7 @@
         <v>44987</v>
       </c>
       <c r="E1123" s="3" t="n">
-        <v>45092</v>
+        <v>45046</v>
       </c>
       <c r="F1123" s="3" t="n">
         <v>1</v>
@@ -78007,7 +78007,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1127" t="n">
@@ -78017,7 +78017,7 @@
         <v>44986</v>
       </c>
       <c r="E1127" s="3" t="n">
-        <v>45169</v>
+        <v>45046</v>
       </c>
       <c r="F1127" s="3" t="n">
         <v>1</v>
@@ -78083,13 +78083,13 @@
         <v>1</v>
       </c>
       <c r="D1128" s="3" t="n">
-        <v>44835</v>
+        <v>44986</v>
       </c>
       <c r="E1128" s="3" t="n">
         <v>45230</v>
       </c>
       <c r="F1128" s="3" t="n">
-        <v>44835</v>
+        <v>44986</v>
       </c>
       <c r="G1128" s="3" t="n">
         <v>1</v>
@@ -78214,14 +78214,14 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>pendientepago</t>
         </is>
       </c>
       <c r="C1130" t="n">
         <v>1</v>
       </c>
       <c r="D1130" s="3" t="n">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="E1130" s="3" t="n">
         <v>45199</v>
@@ -78428,7 +78428,7 @@
         <v>1</v>
       </c>
       <c r="D1133" s="3" t="n">
-        <v>44835</v>
+        <v>45017</v>
       </c>
       <c r="E1133" s="3" t="n">
         <v>45077</v>
@@ -78766,7 +78766,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1138" t="n">
@@ -78776,7 +78776,7 @@
         <v>45000</v>
       </c>
       <c r="E1138" s="3" t="n">
-        <v>45199</v>
+        <v>45016</v>
       </c>
       <c r="F1138" s="3" t="n">
         <v>1</v>
@@ -79319,7 +79319,7 @@
         <v>1</v>
       </c>
       <c r="D1146" s="3" t="n">
-        <v>44805</v>
+        <v>45021</v>
       </c>
       <c r="E1146" s="3" t="n">
         <v>45107</v>
@@ -79388,7 +79388,7 @@
         <v>1</v>
       </c>
       <c r="D1147" s="3" t="n">
-        <v>44936</v>
+        <v>45017</v>
       </c>
       <c r="E1147" s="3" t="n">
         <v>45076</v>
@@ -79664,7 +79664,7 @@
         <v>1</v>
       </c>
       <c r="D1151" s="3" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="E1151" s="3" t="n">
         <v>45107</v>
@@ -79733,7 +79733,7 @@
         <v>1</v>
       </c>
       <c r="D1152" s="3" t="n">
-        <v>44880</v>
+        <v>45017</v>
       </c>
       <c r="E1152" s="3" t="n">
         <v>45138</v>
@@ -79802,7 +79802,7 @@
         <v>1</v>
       </c>
       <c r="D1153" s="3" t="n">
-        <v>44978</v>
+        <v>45017</v>
       </c>
       <c r="E1153" s="3" t="n">
         <v>45138</v>
@@ -80072,13 +80072,13 @@
         <v>1</v>
       </c>
       <c r="D1157" s="3" t="n">
-        <v>44959</v>
+        <v>45047</v>
       </c>
       <c r="E1157" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="F1157" s="3" t="n">
-        <v>44959</v>
+        <v>45047</v>
       </c>
       <c r="G1157" s="3" t="n">
         <v>45077</v>
@@ -80141,7 +80141,7 @@
         <v>1</v>
       </c>
       <c r="D1158" s="3" t="n">
-        <v>45000</v>
+        <v>45017</v>
       </c>
       <c r="E1158" s="3" t="n">
         <v>45199</v>
@@ -80282,7 +80282,7 @@
         <v>45019</v>
       </c>
       <c r="E1160" s="3" t="n">
-        <v>45351</v>
+        <v>45107</v>
       </c>
       <c r="F1160" s="3" t="n">
         <v>1</v>
@@ -80696,7 +80696,7 @@
         <v>45139</v>
       </c>
       <c r="E1166" s="3" t="n">
-        <v>45170</v>
+        <v>45169</v>
       </c>
       <c r="F1166" s="3" t="n">
         <v>1</v>
@@ -81035,7 +81035,7 @@
         <v>1</v>
       </c>
       <c r="D1171" s="3" t="n">
-        <v>45060</v>
+        <v>45078</v>
       </c>
       <c r="E1171" s="3" t="n">
         <v>45107</v>
@@ -81107,7 +81107,7 @@
         <v>45047</v>
       </c>
       <c r="E1172" s="3" t="n">
-        <v>45139</v>
+        <v>45107</v>
       </c>
       <c r="F1172" s="3" t="n">
         <v>1</v>
@@ -81173,7 +81173,7 @@
         <v>1</v>
       </c>
       <c r="D1173" s="3" t="n">
-        <v>45039</v>
+        <v>45040</v>
       </c>
       <c r="E1173" s="3" t="n">
         <v>45122</v>
@@ -81385,7 +81385,7 @@
         <v>1</v>
       </c>
       <c r="D1176" s="3" t="n">
-        <v>44664</v>
+        <v>45033</v>
       </c>
       <c r="E1176" s="3" t="n">
         <v>45148</v>
@@ -81865,7 +81865,7 @@
         <v>1</v>
       </c>
       <c r="D1183" s="3" t="n">
-        <v>44971</v>
+        <v>45078</v>
       </c>
       <c r="E1183" s="3" t="n">
         <v>45199</v>
@@ -82755,7 +82755,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1196" t="n">
@@ -82765,7 +82765,7 @@
         <v>45060</v>
       </c>
       <c r="E1196" s="3" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="F1196" s="3" t="n">
         <v>1</v>
@@ -83100,14 +83100,14 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>pendientepago</t>
         </is>
       </c>
       <c r="C1201" t="n">
         <v>1</v>
       </c>
       <c r="D1201" s="3" t="n">
-        <v>45040</v>
+        <v>45139</v>
       </c>
       <c r="E1201" s="3" t="n">
         <v>45747</v>
@@ -83169,17 +83169,17 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>pendientepago</t>
         </is>
       </c>
       <c r="C1202" t="n">
         <v>1</v>
       </c>
       <c r="D1202" s="3" t="n">
-        <v>45040</v>
+        <v>45108</v>
       </c>
       <c r="E1202" s="3" t="n">
-        <v>45747</v>
+        <v>45138</v>
       </c>
       <c r="F1202" s="3" t="n">
         <v>1</v>
@@ -83515,7 +83515,7 @@
         <v>1</v>
       </c>
       <c r="D1207" s="3" t="n">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="E1207" s="3" t="n">
         <v>45169</v>
@@ -83584,7 +83584,7 @@
         <v>1</v>
       </c>
       <c r="D1208" s="3" t="n">
-        <v>44912</v>
+        <v>45047</v>
       </c>
       <c r="E1208" s="3" t="n">
         <v>45169</v>
@@ -83712,7 +83712,7 @@
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1210" t="n">
@@ -83722,7 +83722,7 @@
         <v>45048</v>
       </c>
       <c r="E1210" s="3" t="n">
-        <v>45230</v>
+        <v>45077</v>
       </c>
       <c r="F1210" s="3" t="n">
         <v>1</v>
@@ -83857,7 +83857,7 @@
         <v>1</v>
       </c>
       <c r="D1212" s="3" t="n">
-        <v>44987</v>
+        <v>45047</v>
       </c>
       <c r="E1212" s="3" t="n">
         <v>45092</v>
@@ -83919,17 +83919,17 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>pendientepago</t>
         </is>
       </c>
       <c r="C1213" t="n">
         <v>1</v>
       </c>
       <c r="D1213" s="3" t="n">
-        <v>45047</v>
+        <v>45108</v>
       </c>
       <c r="E1213" s="3" t="n">
-        <v>45139</v>
+        <v>45138</v>
       </c>
       <c r="F1213" s="3" t="n">
         <v>1</v>
@@ -83988,14 +83988,14 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>pendientepago</t>
         </is>
       </c>
       <c r="C1214" t="n">
         <v>1</v>
       </c>
       <c r="D1214" s="3" t="n">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="E1214" s="3" t="n">
         <v>45230</v>
@@ -84067,7 +84067,7 @@
         <v>45078</v>
       </c>
       <c r="E1215" s="3" t="n">
-        <v>45230</v>
+        <v>45107</v>
       </c>
       <c r="F1215" s="3" t="n">
         <v>1</v>
@@ -84196,7 +84196,7 @@
         <v>1</v>
       </c>
       <c r="D1217" s="3" t="n">
-        <v>45108</v>
+        <v>45188</v>
       </c>
       <c r="E1217" s="3" t="n">
         <v>45291</v>
@@ -84258,14 +84258,14 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>pendientepago</t>
         </is>
       </c>
       <c r="C1218" t="n">
         <v>1</v>
       </c>
       <c r="D1218" s="3" t="n">
-        <v>45019</v>
+        <v>45108</v>
       </c>
       <c r="E1218" s="3" t="n">
         <v>45351</v>
@@ -84337,7 +84337,7 @@
         <v>45108</v>
       </c>
       <c r="E1219" s="3" t="n">
-        <v>45291</v>
+        <v>45187</v>
       </c>
       <c r="F1219" s="3" t="n">
         <v>1</v>
@@ -84679,7 +84679,7 @@
         <v>1</v>
       </c>
       <c r="D1224" s="3" t="n">
-        <v>45048</v>
+        <v>45078</v>
       </c>
       <c r="E1224" s="3" t="n">
         <v>45230</v>
@@ -84741,23 +84741,23 @@
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>pendientepago</t>
         </is>
       </c>
       <c r="C1225" t="n">
         <v>1</v>
       </c>
       <c r="D1225" s="3" t="n">
-        <v>44835</v>
+        <v>45108</v>
       </c>
       <c r="E1225" s="3" t="n">
         <v>45138</v>
       </c>
       <c r="F1225" s="3" t="n">
-        <v>44835</v>
+        <v>45108</v>
       </c>
       <c r="G1225" s="3" t="n">
-        <v>45107</v>
+        <v>1</v>
       </c>
       <c r="H1225" t="n">
         <v>22</v>
@@ -85612,7 +85612,7 @@
         <v>45096</v>
       </c>
       <c r="E1238" s="3" t="n">
-        <v>45291</v>
+        <v>45110</v>
       </c>
       <c r="F1238" s="3" t="n">
         <v>1</v>
@@ -85678,7 +85678,7 @@
         <v>1</v>
       </c>
       <c r="D1239" s="3" t="n">
-        <v>45096</v>
+        <v>45111</v>
       </c>
       <c r="E1239" s="3" t="n">
         <v>45291</v>
@@ -86082,7 +86082,7 @@
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>finalizada</t>
         </is>
       </c>
       <c r="C1245" t="n">
@@ -86092,7 +86092,7 @@
         <v>45065</v>
       </c>
       <c r="E1245" s="3" t="n">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="F1245" s="3" t="n">
         <v>1</v>
@@ -86293,7 +86293,7 @@
         <v>1</v>
       </c>
       <c r="D1248" s="3" t="n">
-        <v>45127</v>
+        <v>45139</v>
       </c>
       <c r="E1248" s="3" t="n">
         <v>45311</v>
@@ -86362,7 +86362,7 @@
         <v>45127</v>
       </c>
       <c r="E1249" s="3" t="n">
-        <v>45311</v>
+        <v>45138</v>
       </c>
       <c r="F1249" s="3" t="n">
         <v>1</v>
@@ -86563,7 +86563,7 @@
         <v>1</v>
       </c>
       <c r="D1252" s="3" t="n">
-        <v>45065</v>
+        <v>45078</v>
       </c>
       <c r="E1252" s="3" t="n">
         <v>45169</v>
@@ -86767,7 +86767,7 @@
         <v>45071</v>
       </c>
       <c r="E1255" s="3" t="n">
-        <v>45199</v>
+        <v>45138</v>
       </c>
       <c r="F1255" s="3" t="n">
         <v>1</v>
@@ -86826,14 +86826,14 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>pendientepago</t>
         </is>
       </c>
       <c r="C1256" t="n">
         <v>1</v>
       </c>
       <c r="D1256" s="3" t="n">
-        <v>45071</v>
+        <v>45139</v>
       </c>
       <c r="E1256" s="3" t="n">
         <v>45199</v>
@@ -87237,17 +87237,17 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>pendientepago</t>
         </is>
       </c>
       <c r="C1262" t="n">
         <v>1</v>
       </c>
       <c r="D1262" s="3" t="n">
-        <v>44655</v>
+        <v>45108</v>
       </c>
       <c r="E1262" s="3" t="n">
-        <v>45443</v>
+        <v>45138</v>
       </c>
       <c r="F1262" s="3" t="n">
         <v>1</v>
@@ -87306,14 +87306,14 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>pendientepago</t>
         </is>
       </c>
       <c r="C1263" t="n">
         <v>1</v>
       </c>
       <c r="D1263" s="3" t="n">
-        <v>44655</v>
+        <v>45139</v>
       </c>
       <c r="E1263" s="3" t="n">
         <v>45443</v>
@@ -87589,7 +87589,7 @@
         <v>1</v>
       </c>
       <c r="D1267" s="3" t="n">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="E1267" s="3" t="n">
         <v>45107</v>
@@ -87658,7 +87658,7 @@
         <v>1</v>
       </c>
       <c r="D1268" s="3" t="n">
-        <v>44760</v>
+        <v>45078</v>
       </c>
       <c r="E1268" s="3" t="n">
         <v>45107</v>
@@ -87793,7 +87793,7 @@
         <v>1</v>
       </c>
       <c r="D1270" s="3" t="n">
-        <v>45087</v>
+        <v>45108</v>
       </c>
       <c r="E1270" s="3" t="n">
         <v>45412</v>
@@ -87865,7 +87865,7 @@
         <v>45087</v>
       </c>
       <c r="E1271" s="3" t="n">
-        <v>45412</v>
+        <v>45107</v>
       </c>
       <c r="F1271" s="3" t="n">
         <v>1</v>
@@ -88191,14 +88191,14 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>inhouse</t>
+          <t>pendientepago</t>
         </is>
       </c>
       <c r="C1276" t="n">
         <v>1</v>
       </c>
       <c r="D1276" s="3" t="n">
-        <v>44880</v>
+        <v>45139</v>
       </c>
       <c r="E1276" s="3" t="n">
         <v>45199</v>
